--- a/studios/studio4/Prob2.xlsx
+++ b/studios/studio4/Prob2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roncytron/git/cse247-f16-students/studios/studio4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arvind/git/cse247-f17-students-aradhak/studios/studio4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4869,1540 +4869,1540 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="512"/>
                 <c:pt idx="0">
-                  <c:v>4000.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8000.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12000.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16000.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20000.0</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24000.0</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28000.0</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32000.0</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36000.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40000.0</c:v>
+                  <c:v>175.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.0</c:v>
+                  <c:v>214.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48000.0</c:v>
+                  <c:v>257.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52000.0</c:v>
+                  <c:v>304.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56000.0</c:v>
+                  <c:v>355.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60000.0</c:v>
+                  <c:v>410.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64000.0</c:v>
+                  <c:v>469.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68000.0</c:v>
+                  <c:v>532.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72000.0</c:v>
+                  <c:v>599.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76000.0</c:v>
+                  <c:v>670.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>80000.0</c:v>
+                  <c:v>745.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84000.0</c:v>
+                  <c:v>824.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>88000.0</c:v>
+                  <c:v>907.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>92000.0</c:v>
+                  <c:v>994.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>96000.0</c:v>
+                  <c:v>1085.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100000.0</c:v>
+                  <c:v>1180.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>104000.0</c:v>
+                  <c:v>1279.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>108000.0</c:v>
+                  <c:v>1382.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>112000.0</c:v>
+                  <c:v>1489.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>116000.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>120000.0</c:v>
+                  <c:v>1715.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>124000.0</c:v>
+                  <c:v>1834.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>128000.0</c:v>
+                  <c:v>1957.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>132000.0</c:v>
+                  <c:v>2084.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>136000.0</c:v>
+                  <c:v>2215.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>140000.0</c:v>
+                  <c:v>2350.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>144000.0</c:v>
+                  <c:v>2489.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>148000.0</c:v>
+                  <c:v>2632.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>152000.0</c:v>
+                  <c:v>2779.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>156000.0</c:v>
+                  <c:v>2930.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>160000.0</c:v>
+                  <c:v>3085.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>164000.0</c:v>
+                  <c:v>3244.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>168000.0</c:v>
+                  <c:v>3407.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>172000.0</c:v>
+                  <c:v>3574.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>176000.0</c:v>
+                  <c:v>3745.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>180000.0</c:v>
+                  <c:v>3920.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>184000.0</c:v>
+                  <c:v>4099.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>188000.0</c:v>
+                  <c:v>4282.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>192000.0</c:v>
+                  <c:v>4469.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>196000.0</c:v>
+                  <c:v>4660.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>200000.0</c:v>
+                  <c:v>4855.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>204000.0</c:v>
+                  <c:v>5054.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>208000.0</c:v>
+                  <c:v>5257.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>212000.0</c:v>
+                  <c:v>5464.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>216000.0</c:v>
+                  <c:v>5675.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>220000.0</c:v>
+                  <c:v>5890.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>224000.0</c:v>
+                  <c:v>6109.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>228000.0</c:v>
+                  <c:v>6332.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>232000.0</c:v>
+                  <c:v>6559.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>236000.0</c:v>
+                  <c:v>6790.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>240000.0</c:v>
+                  <c:v>7025.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>244000.0</c:v>
+                  <c:v>7264.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>248000.0</c:v>
+                  <c:v>7507.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>252000.0</c:v>
+                  <c:v>7754.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>256000.0</c:v>
+                  <c:v>8005.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>260000.0</c:v>
+                  <c:v>8260.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>264000.0</c:v>
+                  <c:v>8519.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>268000.0</c:v>
+                  <c:v>8782.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>272000.0</c:v>
+                  <c:v>9049.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>276000.0</c:v>
+                  <c:v>9320.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>280000.0</c:v>
+                  <c:v>9595.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>284000.0</c:v>
+                  <c:v>9874.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>288000.0</c:v>
+                  <c:v>10157.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>292000.0</c:v>
+                  <c:v>10444.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>296000.0</c:v>
+                  <c:v>10735.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>300000.0</c:v>
+                  <c:v>11030.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>304000.0</c:v>
+                  <c:v>11329.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>308000.0</c:v>
+                  <c:v>11632.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>312000.0</c:v>
+                  <c:v>11939.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>316000.0</c:v>
+                  <c:v>12250.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>320000.0</c:v>
+                  <c:v>12565.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>324000.0</c:v>
+                  <c:v>12884.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>328000.0</c:v>
+                  <c:v>13207.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>332000.0</c:v>
+                  <c:v>13534.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>336000.0</c:v>
+                  <c:v>13865.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>340000.0</c:v>
+                  <c:v>14200.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>344000.0</c:v>
+                  <c:v>14539.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>348000.0</c:v>
+                  <c:v>14882.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>352000.0</c:v>
+                  <c:v>15229.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>356000.0</c:v>
+                  <c:v>15580.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>360000.0</c:v>
+                  <c:v>15935.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>364000.0</c:v>
+                  <c:v>16294.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>368000.0</c:v>
+                  <c:v>16657.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>372000.0</c:v>
+                  <c:v>17024.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>376000.0</c:v>
+                  <c:v>17395.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>380000.0</c:v>
+                  <c:v>17770.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>384000.0</c:v>
+                  <c:v>18149.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>388000.0</c:v>
+                  <c:v>18532.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>392000.0</c:v>
+                  <c:v>18919.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>396000.0</c:v>
+                  <c:v>19310.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>400000.0</c:v>
+                  <c:v>19705.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>404000.0</c:v>
+                  <c:v>20104.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>408000.0</c:v>
+                  <c:v>20507.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>412000.0</c:v>
+                  <c:v>20914.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>416000.0</c:v>
+                  <c:v>21325.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>420000.0</c:v>
+                  <c:v>21740.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>424000.0</c:v>
+                  <c:v>22159.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>428000.0</c:v>
+                  <c:v>22582.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>432000.0</c:v>
+                  <c:v>23009.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>436000.0</c:v>
+                  <c:v>23440.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>440000.0</c:v>
+                  <c:v>23875.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>444000.0</c:v>
+                  <c:v>24314.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>448000.0</c:v>
+                  <c:v>24757.0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>452000.0</c:v>
+                  <c:v>25204.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>456000.0</c:v>
+                  <c:v>25655.0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>460000.0</c:v>
+                  <c:v>26110.0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>464000.0</c:v>
+                  <c:v>26569.0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>468000.0</c:v>
+                  <c:v>27032.0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>472000.0</c:v>
+                  <c:v>27499.0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>476000.0</c:v>
+                  <c:v>27970.0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>480000.0</c:v>
+                  <c:v>28445.0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>484000.0</c:v>
+                  <c:v>28924.0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>488000.0</c:v>
+                  <c:v>29407.0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>492000.0</c:v>
+                  <c:v>29894.0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>496000.0</c:v>
+                  <c:v>30385.0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>500000.0</c:v>
+                  <c:v>30880.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>504000.0</c:v>
+                  <c:v>31379.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>508000.0</c:v>
+                  <c:v>31882.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>512000.0</c:v>
+                  <c:v>32389.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>516000.0</c:v>
+                  <c:v>32900.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>520000.0</c:v>
+                  <c:v>33415.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>524000.0</c:v>
+                  <c:v>33934.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>528000.0</c:v>
+                  <c:v>34457.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>532000.0</c:v>
+                  <c:v>34984.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>536000.0</c:v>
+                  <c:v>35515.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>540000.0</c:v>
+                  <c:v>36050.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>544000.0</c:v>
+                  <c:v>36589.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>548000.0</c:v>
+                  <c:v>37132.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>552000.0</c:v>
+                  <c:v>37679.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>556000.0</c:v>
+                  <c:v>38230.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>560000.0</c:v>
+                  <c:v>38785.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>564000.0</c:v>
+                  <c:v>39344.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>568000.0</c:v>
+                  <c:v>39907.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>572000.0</c:v>
+                  <c:v>40474.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>576000.0</c:v>
+                  <c:v>41045.0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>580000.0</c:v>
+                  <c:v>41620.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>584000.0</c:v>
+                  <c:v>42199.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>588000.0</c:v>
+                  <c:v>42782.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>592000.0</c:v>
+                  <c:v>43369.0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>596000.0</c:v>
+                  <c:v>43960.0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>600000.0</c:v>
+                  <c:v>44555.0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>604000.0</c:v>
+                  <c:v>45154.0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>608000.0</c:v>
+                  <c:v>45757.0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>612000.0</c:v>
+                  <c:v>46364.0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>616000.0</c:v>
+                  <c:v>46975.0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>620000.0</c:v>
+                  <c:v>47590.0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>624000.0</c:v>
+                  <c:v>48209.0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>628000.0</c:v>
+                  <c:v>48832.0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>632000.0</c:v>
+                  <c:v>49459.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>636000.0</c:v>
+                  <c:v>50090.0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>640000.0</c:v>
+                  <c:v>50725.0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>644000.0</c:v>
+                  <c:v>51364.0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>648000.0</c:v>
+                  <c:v>52007.0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>652000.0</c:v>
+                  <c:v>52654.0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>656000.0</c:v>
+                  <c:v>53305.0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>660000.0</c:v>
+                  <c:v>53960.0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>664000.0</c:v>
+                  <c:v>54619.0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>668000.0</c:v>
+                  <c:v>55282.0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>672000.0</c:v>
+                  <c:v>55949.0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>676000.0</c:v>
+                  <c:v>56620.0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>680000.0</c:v>
+                  <c:v>57295.0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>684000.0</c:v>
+                  <c:v>57974.0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>688000.0</c:v>
+                  <c:v>58657.0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>692000.0</c:v>
+                  <c:v>59344.0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>696000.0</c:v>
+                  <c:v>60035.0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>700000.0</c:v>
+                  <c:v>60730.0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>704000.0</c:v>
+                  <c:v>61429.0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>708000.0</c:v>
+                  <c:v>62132.0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>712000.0</c:v>
+                  <c:v>62839.0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>716000.0</c:v>
+                  <c:v>63550.0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>720000.0</c:v>
+                  <c:v>64265.0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>724000.0</c:v>
+                  <c:v>64984.0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>728000.0</c:v>
+                  <c:v>65707.0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>732000.0</c:v>
+                  <c:v>66434.0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>736000.0</c:v>
+                  <c:v>67165.0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>740000.0</c:v>
+                  <c:v>67900.0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>744000.0</c:v>
+                  <c:v>68639.0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>748000.0</c:v>
+                  <c:v>69382.0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>752000.0</c:v>
+                  <c:v>70129.0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>756000.0</c:v>
+                  <c:v>70880.0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>760000.0</c:v>
+                  <c:v>71635.0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>764000.0</c:v>
+                  <c:v>72394.0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>768000.0</c:v>
+                  <c:v>73157.0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>772000.0</c:v>
+                  <c:v>73924.0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>776000.0</c:v>
+                  <c:v>74695.0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>780000.0</c:v>
+                  <c:v>75470.0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>784000.0</c:v>
+                  <c:v>76249.0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>788000.0</c:v>
+                  <c:v>77032.0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>792000.0</c:v>
+                  <c:v>77819.0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>796000.0</c:v>
+                  <c:v>78610.0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>800000.0</c:v>
+                  <c:v>79405.0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>804000.0</c:v>
+                  <c:v>80204.0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>808000.0</c:v>
+                  <c:v>81007.0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>812000.0</c:v>
+                  <c:v>81814.0</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>816000.0</c:v>
+                  <c:v>82625.0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>820000.0</c:v>
+                  <c:v>83440.0</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>824000.0</c:v>
+                  <c:v>84259.0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>828000.0</c:v>
+                  <c:v>85082.0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>832000.0</c:v>
+                  <c:v>85909.0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>836000.0</c:v>
+                  <c:v>86740.0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>840000.0</c:v>
+                  <c:v>87575.0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>844000.0</c:v>
+                  <c:v>88414.0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>848000.0</c:v>
+                  <c:v>89257.0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>852000.0</c:v>
+                  <c:v>90104.0</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>856000.0</c:v>
+                  <c:v>90955.0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>860000.0</c:v>
+                  <c:v>91810.0</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>864000.0</c:v>
+                  <c:v>92669.0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>868000.0</c:v>
+                  <c:v>93532.0</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>872000.0</c:v>
+                  <c:v>94399.0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>876000.0</c:v>
+                  <c:v>95270.0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>880000.0</c:v>
+                  <c:v>96145.0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>884000.0</c:v>
+                  <c:v>97024.0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>888000.0</c:v>
+                  <c:v>97907.0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>892000.0</c:v>
+                  <c:v>98794.0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>896000.0</c:v>
+                  <c:v>99685.0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>900000.0</c:v>
+                  <c:v>100580.0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>904000.0</c:v>
+                  <c:v>101479.0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>908000.0</c:v>
+                  <c:v>102382.0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>912000.0</c:v>
+                  <c:v>103289.0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>916000.0</c:v>
+                  <c:v>104200.0</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>920000.0</c:v>
+                  <c:v>105115.0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>924000.0</c:v>
+                  <c:v>106034.0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>928000.0</c:v>
+                  <c:v>106957.0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>932000.0</c:v>
+                  <c:v>107884.0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>936000.0</c:v>
+                  <c:v>108815.0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>940000.0</c:v>
+                  <c:v>109750.0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>944000.0</c:v>
+                  <c:v>110689.0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>948000.0</c:v>
+                  <c:v>111632.0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>952000.0</c:v>
+                  <c:v>112579.0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>956000.0</c:v>
+                  <c:v>113530.0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>960000.0</c:v>
+                  <c:v>114485.0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>964000.0</c:v>
+                  <c:v>115444.0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>968000.0</c:v>
+                  <c:v>116407.0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>972000.0</c:v>
+                  <c:v>117374.0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>976000.0</c:v>
+                  <c:v>118345.0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>980000.0</c:v>
+                  <c:v>119320.0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>984000.0</c:v>
+                  <c:v>120299.0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>988000.0</c:v>
+                  <c:v>121282.0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>992000.0</c:v>
+                  <c:v>122269.0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>996000.0</c:v>
+                  <c:v>123260.0</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>1.0E6</c:v>
+                  <c:v>124255.0</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>1.004E6</c:v>
+                  <c:v>125254.0</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>1.008E6</c:v>
+                  <c:v>126257.0</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>1.012E6</c:v>
+                  <c:v>127264.0</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>1.016E6</c:v>
+                  <c:v>128275.0</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>1.02E6</c:v>
+                  <c:v>129290.0</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>1.024E6</c:v>
+                  <c:v>130309.0</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>1.028E6</c:v>
+                  <c:v>131332.0</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>1.032E6</c:v>
+                  <c:v>132359.0</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>1.036E6</c:v>
+                  <c:v>133390.0</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>1.04E6</c:v>
+                  <c:v>134425.0</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>1.044E6</c:v>
+                  <c:v>135464.0</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>1.048E6</c:v>
+                  <c:v>136507.0</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>1.052E6</c:v>
+                  <c:v>137554.0</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>1.056E6</c:v>
+                  <c:v>138605.0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>1.06E6</c:v>
+                  <c:v>139660.0</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>1.064E6</c:v>
+                  <c:v>140719.0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>1.068E6</c:v>
+                  <c:v>141782.0</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>1.072E6</c:v>
+                  <c:v>142849.0</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>1.076E6</c:v>
+                  <c:v>143920.0</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>1.08E6</c:v>
+                  <c:v>144995.0</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>1.084E6</c:v>
+                  <c:v>146074.0</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>1.088E6</c:v>
+                  <c:v>147157.0</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>1.092E6</c:v>
+                  <c:v>148244.0</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>1.096E6</c:v>
+                  <c:v>149335.0</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>1.1E6</c:v>
+                  <c:v>150430.0</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>1.104E6</c:v>
+                  <c:v>151529.0</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>1.108E6</c:v>
+                  <c:v>152632.0</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>1.112E6</c:v>
+                  <c:v>153739.0</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>1.116E6</c:v>
+                  <c:v>154850.0</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>1.12E6</c:v>
+                  <c:v>155965.0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>1.124E6</c:v>
+                  <c:v>157084.0</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>1.128E6</c:v>
+                  <c:v>158207.0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>1.132E6</c:v>
+                  <c:v>159334.0</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>1.136E6</c:v>
+                  <c:v>160465.0</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>1.14E6</c:v>
+                  <c:v>161600.0</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>1.144E6</c:v>
+                  <c:v>162739.0</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>1.148E6</c:v>
+                  <c:v>163882.0</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>1.152E6</c:v>
+                  <c:v>165029.0</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>1.156E6</c:v>
+                  <c:v>166180.0</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>1.16E6</c:v>
+                  <c:v>167335.0</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>1.164E6</c:v>
+                  <c:v>168494.0</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>1.168E6</c:v>
+                  <c:v>169657.0</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>1.172E6</c:v>
+                  <c:v>170824.0</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1.176E6</c:v>
+                  <c:v>171995.0</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1.18E6</c:v>
+                  <c:v>173170.0</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1.184E6</c:v>
+                  <c:v>174349.0</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>1.188E6</c:v>
+                  <c:v>175532.0</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>1.192E6</c:v>
+                  <c:v>176719.0</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>1.196E6</c:v>
+                  <c:v>177910.0</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>1.2E6</c:v>
+                  <c:v>179105.0</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>1.204E6</c:v>
+                  <c:v>180304.0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.208E6</c:v>
+                  <c:v>181507.0</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1.212E6</c:v>
+                  <c:v>182714.0</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1.216E6</c:v>
+                  <c:v>183925.0</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1.22E6</c:v>
+                  <c:v>185140.0</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1.224E6</c:v>
+                  <c:v>186359.0</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1.228E6</c:v>
+                  <c:v>187582.0</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1.232E6</c:v>
+                  <c:v>188809.0</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1.236E6</c:v>
+                  <c:v>190040.0</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1.24E6</c:v>
+                  <c:v>191275.0</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1.244E6</c:v>
+                  <c:v>192514.0</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1.248E6</c:v>
+                  <c:v>193757.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1.252E6</c:v>
+                  <c:v>195004.0</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1.256E6</c:v>
+                  <c:v>196255.0</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1.26E6</c:v>
+                  <c:v>197510.0</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.264E6</c:v>
+                  <c:v>198769.0</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1.268E6</c:v>
+                  <c:v>200032.0</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1.272E6</c:v>
+                  <c:v>201299.0</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1.276E6</c:v>
+                  <c:v>202570.0</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1.28E6</c:v>
+                  <c:v>203845.0</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>1.284E6</c:v>
+                  <c:v>205124.0</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>1.288E6</c:v>
+                  <c:v>206407.0</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>1.292E6</c:v>
+                  <c:v>207694.0</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>1.296E6</c:v>
+                  <c:v>208985.0</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>1.3E6</c:v>
+                  <c:v>210280.0</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>1.304E6</c:v>
+                  <c:v>211579.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>1.308E6</c:v>
+                  <c:v>212882.0</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>1.312E6</c:v>
+                  <c:v>214189.0</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>1.316E6</c:v>
+                  <c:v>215500.0</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>1.32E6</c:v>
+                  <c:v>216815.0</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>1.324E6</c:v>
+                  <c:v>218134.0</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>1.328E6</c:v>
+                  <c:v>219457.0</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>1.332E6</c:v>
+                  <c:v>220784.0</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>1.336E6</c:v>
+                  <c:v>222115.0</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>1.34E6</c:v>
+                  <c:v>223450.0</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>1.344E6</c:v>
+                  <c:v>224789.0</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>1.348E6</c:v>
+                  <c:v>226132.0</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>1.352E6</c:v>
+                  <c:v>227479.0</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>1.356E6</c:v>
+                  <c:v>228830.0</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>1.36E6</c:v>
+                  <c:v>230185.0</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>1.364E6</c:v>
+                  <c:v>231544.0</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>1.368E6</c:v>
+                  <c:v>232907.0</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>1.372E6</c:v>
+                  <c:v>234274.0</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>1.376E6</c:v>
+                  <c:v>235645.0</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>1.38E6</c:v>
+                  <c:v>237020.0</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>1.384E6</c:v>
+                  <c:v>238399.0</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>1.388E6</c:v>
+                  <c:v>239782.0</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>1.392E6</c:v>
+                  <c:v>241169.0</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>1.396E6</c:v>
+                  <c:v>242560.0</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>1.4E6</c:v>
+                  <c:v>243955.0</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>1.404E6</c:v>
+                  <c:v>245354.0</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>1.408E6</c:v>
+                  <c:v>246757.0</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>1.412E6</c:v>
+                  <c:v>248164.0</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>1.416E6</c:v>
+                  <c:v>249575.0</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>1.42E6</c:v>
+                  <c:v>250990.0</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>1.424E6</c:v>
+                  <c:v>252409.0</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>1.428E6</c:v>
+                  <c:v>253832.0</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>1.432E6</c:v>
+                  <c:v>255259.0</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>1.436E6</c:v>
+                  <c:v>256690.0</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>1.44E6</c:v>
+                  <c:v>258125.0</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>1.444E6</c:v>
+                  <c:v>259564.0</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>1.448E6</c:v>
+                  <c:v>261007.0</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>1.452E6</c:v>
+                  <c:v>262454.0</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>1.456E6</c:v>
+                  <c:v>263905.0</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>1.46E6</c:v>
+                  <c:v>265360.0</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>1.464E6</c:v>
+                  <c:v>266819.0</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>1.468E6</c:v>
+                  <c:v>268282.0</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>1.472E6</c:v>
+                  <c:v>269749.0</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>1.476E6</c:v>
+                  <c:v>271220.0</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>1.48E6</c:v>
+                  <c:v>272695.0</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>1.484E6</c:v>
+                  <c:v>274174.0</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>1.488E6</c:v>
+                  <c:v>275657.0</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>1.492E6</c:v>
+                  <c:v>277144.0</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>1.496E6</c:v>
+                  <c:v>278635.0</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>1.5E6</c:v>
+                  <c:v>280130.0</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>1.504E6</c:v>
+                  <c:v>281629.0</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>1.508E6</c:v>
+                  <c:v>283132.0</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>1.512E6</c:v>
+                  <c:v>284639.0</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>1.516E6</c:v>
+                  <c:v>286150.0</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>1.52E6</c:v>
+                  <c:v>287665.0</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>1.524E6</c:v>
+                  <c:v>289184.0</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>1.528E6</c:v>
+                  <c:v>290707.0</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>1.532E6</c:v>
+                  <c:v>292234.0</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>1.536E6</c:v>
+                  <c:v>293765.0</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>1.54E6</c:v>
+                  <c:v>295300.0</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>1.544E6</c:v>
+                  <c:v>296839.0</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>1.548E6</c:v>
+                  <c:v>298382.0</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>1.552E6</c:v>
+                  <c:v>299929.0</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>1.556E6</c:v>
+                  <c:v>301480.0</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>1.56E6</c:v>
+                  <c:v>303035.0</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>1.564E6</c:v>
+                  <c:v>304594.0</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>1.568E6</c:v>
+                  <c:v>306157.0</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>1.572E6</c:v>
+                  <c:v>307724.0</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>1.576E6</c:v>
+                  <c:v>309295.0</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>1.58E6</c:v>
+                  <c:v>310870.0</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>1.584E6</c:v>
+                  <c:v>312449.0</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>1.588E6</c:v>
+                  <c:v>314032.0</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>1.592E6</c:v>
+                  <c:v>315619.0</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>1.596E6</c:v>
+                  <c:v>317210.0</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>1.6E6</c:v>
+                  <c:v>318805.0</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>1.604E6</c:v>
+                  <c:v>320404.0</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>1.608E6</c:v>
+                  <c:v>322007.0</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>1.612E6</c:v>
+                  <c:v>323614.0</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>1.616E6</c:v>
+                  <c:v>325225.0</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>1.62E6</c:v>
+                  <c:v>326840.0</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>1.624E6</c:v>
+                  <c:v>328459.0</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>1.628E6</c:v>
+                  <c:v>330082.0</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>1.632E6</c:v>
+                  <c:v>331709.0</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>1.636E6</c:v>
+                  <c:v>333340.0</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>1.64E6</c:v>
+                  <c:v>334975.0</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>1.644E6</c:v>
+                  <c:v>336614.0</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>1.648E6</c:v>
+                  <c:v>338257.0</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>1.652E6</c:v>
+                  <c:v>339904.0</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>1.656E6</c:v>
+                  <c:v>341555.0</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>1.66E6</c:v>
+                  <c:v>343210.0</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>1.664E6</c:v>
+                  <c:v>344869.0</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>1.668E6</c:v>
+                  <c:v>346532.0</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>1.672E6</c:v>
+                  <c:v>348199.0</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>1.676E6</c:v>
+                  <c:v>349870.0</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>1.68E6</c:v>
+                  <c:v>351545.0</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>1.684E6</c:v>
+                  <c:v>353224.0</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>1.688E6</c:v>
+                  <c:v>354907.0</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>1.692E6</c:v>
+                  <c:v>356594.0</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>1.696E6</c:v>
+                  <c:v>358285.0</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>1.7E6</c:v>
+                  <c:v>359980.0</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>1.704E6</c:v>
+                  <c:v>361679.0</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>1.708E6</c:v>
+                  <c:v>363382.0</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>1.712E6</c:v>
+                  <c:v>365089.0</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>1.716E6</c:v>
+                  <c:v>366800.0</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>1.72E6</c:v>
+                  <c:v>368515.0</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>1.724E6</c:v>
+                  <c:v>370234.0</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>1.728E6</c:v>
+                  <c:v>371957.0</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>1.732E6</c:v>
+                  <c:v>373684.0</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>1.736E6</c:v>
+                  <c:v>375415.0</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>1.74E6</c:v>
+                  <c:v>377150.0</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>1.744E6</c:v>
+                  <c:v>378889.0</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>1.748E6</c:v>
+                  <c:v>380632.0</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>1.752E6</c:v>
+                  <c:v>382379.0</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>1.756E6</c:v>
+                  <c:v>384130.0</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>1.76E6</c:v>
+                  <c:v>385885.0</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>1.764E6</c:v>
+                  <c:v>387644.0</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>1.768E6</c:v>
+                  <c:v>389407.0</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>1.772E6</c:v>
+                  <c:v>391174.0</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>1.776E6</c:v>
+                  <c:v>392945.0</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>1.78E6</c:v>
+                  <c:v>394720.0</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>1.784E6</c:v>
+                  <c:v>396499.0</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>1.788E6</c:v>
+                  <c:v>398282.0</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>1.792E6</c:v>
+                  <c:v>400069.0</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>1.796E6</c:v>
+                  <c:v>401860.0</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>1.8E6</c:v>
+                  <c:v>403655.0</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>1.804E6</c:v>
+                  <c:v>405454.0</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>1.808E6</c:v>
+                  <c:v>407257.0</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>1.812E6</c:v>
+                  <c:v>409064.0</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>1.816E6</c:v>
+                  <c:v>410875.0</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>1.82E6</c:v>
+                  <c:v>412690.0</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>1.824E6</c:v>
+                  <c:v>414509.0</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>1.828E6</c:v>
+                  <c:v>416332.0</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>1.832E6</c:v>
+                  <c:v>418159.0</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>1.836E6</c:v>
+                  <c:v>419990.0</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>1.84E6</c:v>
+                  <c:v>421825.0</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>1.844E6</c:v>
+                  <c:v>423664.0</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>1.848E6</c:v>
+                  <c:v>425507.0</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>1.852E6</c:v>
+                  <c:v>427354.0</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>1.856E6</c:v>
+                  <c:v>429205.0</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>1.86E6</c:v>
+                  <c:v>431060.0</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>1.864E6</c:v>
+                  <c:v>432919.0</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>1.868E6</c:v>
+                  <c:v>434782.0</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>1.872E6</c:v>
+                  <c:v>436649.0</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>1.876E6</c:v>
+                  <c:v>438520.0</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>1.88E6</c:v>
+                  <c:v>440395.0</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>1.884E6</c:v>
+                  <c:v>442274.0</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>1.888E6</c:v>
+                  <c:v>444157.0</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>1.892E6</c:v>
+                  <c:v>446044.0</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>1.896E6</c:v>
+                  <c:v>447935.0</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>1.9E6</c:v>
+                  <c:v>449830.0</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>1.904E6</c:v>
+                  <c:v>451729.0</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>1.908E6</c:v>
+                  <c:v>453632.0</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>1.912E6</c:v>
+                  <c:v>455539.0</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>1.916E6</c:v>
+                  <c:v>457450.0</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>1.92E6</c:v>
+                  <c:v>459365.0</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>1.924E6</c:v>
+                  <c:v>461284.0</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>1.928E6</c:v>
+                  <c:v>463207.0</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>1.932E6</c:v>
+                  <c:v>465134.0</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>1.936E6</c:v>
+                  <c:v>467065.0</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>1.94E6</c:v>
+                  <c:v>469000.0</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>1.944E6</c:v>
+                  <c:v>470939.0</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>1.948E6</c:v>
+                  <c:v>472882.0</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>1.952E6</c:v>
+                  <c:v>474829.0</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>1.956E6</c:v>
+                  <c:v>476780.0</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>1.96E6</c:v>
+                  <c:v>478735.0</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>1.964E6</c:v>
+                  <c:v>480694.0</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>1.968E6</c:v>
+                  <c:v>482657.0</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>1.972E6</c:v>
+                  <c:v>484624.0</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>1.976E6</c:v>
+                  <c:v>486595.0</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>1.98E6</c:v>
+                  <c:v>488570.0</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>1.984E6</c:v>
+                  <c:v>490549.0</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>1.988E6</c:v>
+                  <c:v>492532.0</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>1.992E6</c:v>
+                  <c:v>494519.0</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>1.996E6</c:v>
+                  <c:v>496510.0</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>2.0E6</c:v>
+                  <c:v>498505.0</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>2.004E6</c:v>
+                  <c:v>500504.0</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>2.008E6</c:v>
+                  <c:v>502507.0</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>2.012E6</c:v>
+                  <c:v>504514.0</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>2.016E6</c:v>
+                  <c:v>506525.0</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>2.02E6</c:v>
+                  <c:v>508540.0</c:v>
                 </c:pt>
                 <c:pt idx="505">
-                  <c:v>2.024E6</c:v>
+                  <c:v>510559.0</c:v>
                 </c:pt>
                 <c:pt idx="506">
-                  <c:v>2.028E6</c:v>
+                  <c:v>512582.0</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>2.032E6</c:v>
+                  <c:v>514609.0</c:v>
                 </c:pt>
                 <c:pt idx="508">
-                  <c:v>2.036E6</c:v>
+                  <c:v>516640.0</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>2.04E6</c:v>
+                  <c:v>518675.0</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>2.044E6</c:v>
+                  <c:v>520714.0</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>2.048E6</c:v>
+                  <c:v>522757.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6417,11 +6417,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-751293408"/>
-        <c:axId val="-751288752"/>
+        <c:axId val="-1673621936"/>
+        <c:axId val="-1665854656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-751293408"/>
+        <c:axId val="-1673621936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6477,12 +6477,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-751288752"/>
+        <c:crossAx val="-1665854656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-751288752"/>
+        <c:axId val="-1665854656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6502,6 +6502,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6538,7 +6539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-751293408"/>
+        <c:crossAx val="-1673621936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7476,7 +7477,7 @@
   <dimension ref="A1:F513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2:D513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7516,8 +7517,8 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <f>4000*A2</f>
-        <v>4000</v>
+        <f>2*A2*A2 - 3*A2 + 5</f>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7529,12 +7530,12 @@
         <v>$C$2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C60" ca="1" si="1">1*INDIRECT(B3)+4*A3-5</f>
+        <f t="shared" ref="C3:C28" ca="1" si="1">1*INDIRECT(B3)+4*A3-5</f>
         <v>7</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="2">4000*A3</f>
-        <v>8000</v>
+        <f t="shared" ref="D3:D66" si="2">2*A3*A3 - 3*A3 + 5</f>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7551,7 +7552,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -7568,7 +7569,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>16000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -7585,7 +7586,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -7602,7 +7603,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>24000</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -7619,7 +7620,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>28000</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -7636,7 +7637,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>32000</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -7653,7 +7654,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>36000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -7670,7 +7671,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -7687,7 +7688,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>44000</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -7704,7 +7705,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>48000</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -7721,7 +7722,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>52000</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -7738,7 +7739,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>56000</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -7755,7 +7756,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -7772,7 +7773,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>64000</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -7789,7 +7790,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>68000</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -7806,7 +7807,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>72000</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -7823,7 +7824,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>76000</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -7840,7 +7841,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -7857,7 +7858,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>84000</v>
+        <v>824</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -7874,7 +7875,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>88000</v>
+        <v>907</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -7891,7 +7892,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>92000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7908,7 +7909,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>96000</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -7925,7 +7926,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>100000</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7942,7 +7943,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>104000</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -7959,7 +7960,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>108000</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -7971,12 +7972,12 @@
         <v>$C$28</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C3:C66" ca="1" si="3">1*INDIRECT(B29)+4*A29-7</f>
+        <f t="shared" ref="C29:C66" ca="1" si="3">1*INDIRECT(B29)+4*A29-7</f>
         <v>1487</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>112000</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -7993,7 +7994,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>116000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -8010,7 +8011,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -8027,7 +8028,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>124000</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -8044,7 +8045,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>128000</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -8061,7 +8062,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>132000</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -8078,7 +8079,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>136000</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -8095,7 +8096,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>140000</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -8112,7 +8113,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>144000</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -8129,7 +8130,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>148000</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -8146,7 +8147,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>152000</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -8163,7 +8164,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>156000</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -8180,7 +8181,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>160000</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -8197,7 +8198,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>164000</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -8214,7 +8215,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>168000</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -8231,7 +8232,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>172000</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -8248,7 +8249,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>176000</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -8265,7 +8266,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>180000</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -8282,7 +8283,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>184000</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -8299,7 +8300,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>188000</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -8316,7 +8317,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>192000</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -8333,7 +8334,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>196000</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -8350,7 +8351,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>200000</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -8367,7 +8368,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>204000</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -8384,7 +8385,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>208000</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -8401,7 +8402,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>212000</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -8418,7 +8419,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>216000</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -8435,7 +8436,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>220000</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -8452,7 +8453,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>224000</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -8469,7 +8470,7 @@
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
-        <v>228000</v>
+        <v>6332</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -8486,7 +8487,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>232000</v>
+        <v>6559</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -8503,7 +8504,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>236000</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -8520,7 +8521,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>240000</v>
+        <v>7025</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -8537,7 +8538,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>244000</v>
+        <v>7264</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -8554,7 +8555,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>248000</v>
+        <v>7507</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -8571,7 +8572,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>252000</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -8588,7 +8589,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
-        <v>256000</v>
+        <v>8005</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -8605,7 +8606,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
-        <v>260000</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -8621,8 +8622,8 @@
         <v>8441</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="6">4000*A67</f>
-        <v>264000</v>
+        <f t="shared" ref="D67:D130" si="6">2*A67*A67 - 3*A67 + 5</f>
+        <v>8519</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -8639,7 +8640,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="6"/>
-        <v>268000</v>
+        <v>8782</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -8656,7 +8657,7 @@
       </c>
       <c r="D69">
         <f t="shared" si="6"/>
-        <v>272000</v>
+        <v>9049</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -8673,7 +8674,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="6"/>
-        <v>276000</v>
+        <v>9320</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -8690,7 +8691,7 @@
       </c>
       <c r="D71">
         <f t="shared" si="6"/>
-        <v>280000</v>
+        <v>9595</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -8707,7 +8708,7 @@
       </c>
       <c r="D72">
         <f t="shared" si="6"/>
-        <v>284000</v>
+        <v>9874</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -8724,7 +8725,7 @@
       </c>
       <c r="D73">
         <f t="shared" si="6"/>
-        <v>288000</v>
+        <v>10157</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -8741,7 +8742,7 @@
       </c>
       <c r="D74">
         <f t="shared" si="6"/>
-        <v>292000</v>
+        <v>10444</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -8758,7 +8759,7 @@
       </c>
       <c r="D75">
         <f t="shared" si="6"/>
-        <v>296000</v>
+        <v>10735</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -8775,7 +8776,7 @@
       </c>
       <c r="D76">
         <f t="shared" si="6"/>
-        <v>300000</v>
+        <v>11030</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -8792,7 +8793,7 @@
       </c>
       <c r="D77">
         <f t="shared" si="6"/>
-        <v>304000</v>
+        <v>11329</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -8809,7 +8810,7 @@
       </c>
       <c r="D78">
         <f t="shared" si="6"/>
-        <v>308000</v>
+        <v>11632</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -8826,7 +8827,7 @@
       </c>
       <c r="D79">
         <f t="shared" si="6"/>
-        <v>312000</v>
+        <v>11939</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -8843,7 +8844,7 @@
       </c>
       <c r="D80">
         <f t="shared" si="6"/>
-        <v>316000</v>
+        <v>12250</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -8860,7 +8861,7 @@
       </c>
       <c r="D81">
         <f t="shared" si="6"/>
-        <v>320000</v>
+        <v>12565</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -8877,7 +8878,7 @@
       </c>
       <c r="D82">
         <f t="shared" si="6"/>
-        <v>324000</v>
+        <v>12884</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -8894,7 +8895,7 @@
       </c>
       <c r="D83">
         <f t="shared" si="6"/>
-        <v>328000</v>
+        <v>13207</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -8911,7 +8912,7 @@
       </c>
       <c r="D84">
         <f t="shared" si="6"/>
-        <v>332000</v>
+        <v>13534</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -8928,7 +8929,7 @@
       </c>
       <c r="D85">
         <f t="shared" si="6"/>
-        <v>336000</v>
+        <v>13865</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -8945,7 +8946,7 @@
       </c>
       <c r="D86">
         <f t="shared" si="6"/>
-        <v>340000</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -8962,7 +8963,7 @@
       </c>
       <c r="D87">
         <f t="shared" si="6"/>
-        <v>344000</v>
+        <v>14539</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -8979,7 +8980,7 @@
       </c>
       <c r="D88">
         <f t="shared" si="6"/>
-        <v>348000</v>
+        <v>14882</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -8996,7 +8997,7 @@
       </c>
       <c r="D89">
         <f t="shared" si="6"/>
-        <v>352000</v>
+        <v>15229</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -9013,7 +9014,7 @@
       </c>
       <c r="D90">
         <f t="shared" si="6"/>
-        <v>356000</v>
+        <v>15580</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -9030,7 +9031,7 @@
       </c>
       <c r="D91">
         <f t="shared" si="6"/>
-        <v>360000</v>
+        <v>15935</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -9047,7 +9048,7 @@
       </c>
       <c r="D92">
         <f t="shared" si="6"/>
-        <v>364000</v>
+        <v>16294</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -9064,7 +9065,7 @@
       </c>
       <c r="D93">
         <f t="shared" si="6"/>
-        <v>368000</v>
+        <v>16657</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -9081,7 +9082,7 @@
       </c>
       <c r="D94">
         <f t="shared" si="6"/>
-        <v>372000</v>
+        <v>17024</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -9098,7 +9099,7 @@
       </c>
       <c r="D95">
         <f t="shared" si="6"/>
-        <v>376000</v>
+        <v>17395</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -9115,7 +9116,7 @@
       </c>
       <c r="D96">
         <f t="shared" si="6"/>
-        <v>380000</v>
+        <v>17770</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -9132,7 +9133,7 @@
       </c>
       <c r="D97">
         <f t="shared" si="6"/>
-        <v>384000</v>
+        <v>18149</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -9149,7 +9150,7 @@
       </c>
       <c r="D98">
         <f t="shared" si="6"/>
-        <v>388000</v>
+        <v>18532</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -9166,7 +9167,7 @@
       </c>
       <c r="D99">
         <f t="shared" si="6"/>
-        <v>392000</v>
+        <v>18919</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -9183,7 +9184,7 @@
       </c>
       <c r="D100">
         <f t="shared" si="6"/>
-        <v>396000</v>
+        <v>19310</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -9200,7 +9201,7 @@
       </c>
       <c r="D101">
         <f t="shared" si="6"/>
-        <v>400000</v>
+        <v>19705</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -9217,7 +9218,7 @@
       </c>
       <c r="D102">
         <f t="shared" si="6"/>
-        <v>404000</v>
+        <v>20104</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -9234,7 +9235,7 @@
       </c>
       <c r="D103">
         <f t="shared" si="6"/>
-        <v>408000</v>
+        <v>20507</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -9251,7 +9252,7 @@
       </c>
       <c r="D104">
         <f t="shared" si="6"/>
-        <v>412000</v>
+        <v>20914</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -9268,7 +9269,7 @@
       </c>
       <c r="D105">
         <f t="shared" si="6"/>
-        <v>416000</v>
+        <v>21325</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -9285,7 +9286,7 @@
       </c>
       <c r="D106">
         <f t="shared" si="6"/>
-        <v>420000</v>
+        <v>21740</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -9302,7 +9303,7 @@
       </c>
       <c r="D107">
         <f t="shared" si="6"/>
-        <v>424000</v>
+        <v>22159</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -9319,7 +9320,7 @@
       </c>
       <c r="D108">
         <f t="shared" si="6"/>
-        <v>428000</v>
+        <v>22582</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -9336,7 +9337,7 @@
       </c>
       <c r="D109">
         <f t="shared" si="6"/>
-        <v>432000</v>
+        <v>23009</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -9353,7 +9354,7 @@
       </c>
       <c r="D110">
         <f t="shared" si="6"/>
-        <v>436000</v>
+        <v>23440</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -9370,7 +9371,7 @@
       </c>
       <c r="D111">
         <f t="shared" si="6"/>
-        <v>440000</v>
+        <v>23875</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -9387,7 +9388,7 @@
       </c>
       <c r="D112">
         <f t="shared" si="6"/>
-        <v>444000</v>
+        <v>24314</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -9404,7 +9405,7 @@
       </c>
       <c r="D113">
         <f t="shared" si="6"/>
-        <v>448000</v>
+        <v>24757</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -9421,7 +9422,7 @@
       </c>
       <c r="D114">
         <f t="shared" si="6"/>
-        <v>452000</v>
+        <v>25204</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -9438,7 +9439,7 @@
       </c>
       <c r="D115">
         <f t="shared" si="6"/>
-        <v>456000</v>
+        <v>25655</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -9455,7 +9456,7 @@
       </c>
       <c r="D116">
         <f t="shared" si="6"/>
-        <v>460000</v>
+        <v>26110</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -9472,7 +9473,7 @@
       </c>
       <c r="D117">
         <f t="shared" si="6"/>
-        <v>464000</v>
+        <v>26569</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -9489,7 +9490,7 @@
       </c>
       <c r="D118">
         <f t="shared" si="6"/>
-        <v>468000</v>
+        <v>27032</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -9506,7 +9507,7 @@
       </c>
       <c r="D119">
         <f t="shared" si="6"/>
-        <v>472000</v>
+        <v>27499</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -9523,7 +9524,7 @@
       </c>
       <c r="D120">
         <f t="shared" si="6"/>
-        <v>476000</v>
+        <v>27970</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -9540,7 +9541,7 @@
       </c>
       <c r="D121">
         <f t="shared" si="6"/>
-        <v>480000</v>
+        <v>28445</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -9557,7 +9558,7 @@
       </c>
       <c r="D122">
         <f t="shared" si="6"/>
-        <v>484000</v>
+        <v>28924</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -9574,7 +9575,7 @@
       </c>
       <c r="D123">
         <f t="shared" si="6"/>
-        <v>488000</v>
+        <v>29407</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -9591,7 +9592,7 @@
       </c>
       <c r="D124">
         <f t="shared" si="6"/>
-        <v>492000</v>
+        <v>29894</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -9608,7 +9609,7 @@
       </c>
       <c r="D125">
         <f t="shared" si="6"/>
-        <v>496000</v>
+        <v>30385</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -9625,7 +9626,7 @@
       </c>
       <c r="D126">
         <f t="shared" si="6"/>
-        <v>500000</v>
+        <v>30880</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -9642,7 +9643,7 @@
       </c>
       <c r="D127">
         <f t="shared" si="6"/>
-        <v>504000</v>
+        <v>31379</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -9659,7 +9660,7 @@
       </c>
       <c r="D128">
         <f t="shared" si="6"/>
-        <v>508000</v>
+        <v>31882</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -9676,7 +9677,7 @@
       </c>
       <c r="D129">
         <f t="shared" si="6"/>
-        <v>512000</v>
+        <v>32389</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -9693,7 +9694,7 @@
       </c>
       <c r="D130">
         <f t="shared" si="6"/>
-        <v>516000</v>
+        <v>32900</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -9709,8 +9710,8 @@
         <v>33209</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="9">4000*A131</f>
-        <v>520000</v>
+        <f t="shared" ref="D131:D194" si="9">2*A131*A131 - 3*A131 + 5</f>
+        <v>33415</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -9727,7 +9728,7 @@
       </c>
       <c r="D132">
         <f t="shared" si="9"/>
-        <v>524000</v>
+        <v>33934</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -9744,7 +9745,7 @@
       </c>
       <c r="D133">
         <f t="shared" si="9"/>
-        <v>528000</v>
+        <v>34457</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -9761,7 +9762,7 @@
       </c>
       <c r="D134">
         <f t="shared" si="9"/>
-        <v>532000</v>
+        <v>34984</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -9778,7 +9779,7 @@
       </c>
       <c r="D135">
         <f t="shared" si="9"/>
-        <v>536000</v>
+        <v>35515</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -9795,7 +9796,7 @@
       </c>
       <c r="D136">
         <f t="shared" si="9"/>
-        <v>540000</v>
+        <v>36050</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -9812,7 +9813,7 @@
       </c>
       <c r="D137">
         <f t="shared" si="9"/>
-        <v>544000</v>
+        <v>36589</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -9829,7 +9830,7 @@
       </c>
       <c r="D138">
         <f t="shared" si="9"/>
-        <v>548000</v>
+        <v>37132</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -9846,7 +9847,7 @@
       </c>
       <c r="D139">
         <f t="shared" si="9"/>
-        <v>552000</v>
+        <v>37679</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -9863,7 +9864,7 @@
       </c>
       <c r="D140">
         <f t="shared" si="9"/>
-        <v>556000</v>
+        <v>38230</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -9880,7 +9881,7 @@
       </c>
       <c r="D141">
         <f t="shared" si="9"/>
-        <v>560000</v>
+        <v>38785</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -9897,7 +9898,7 @@
       </c>
       <c r="D142">
         <f t="shared" si="9"/>
-        <v>564000</v>
+        <v>39344</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -9914,7 +9915,7 @@
       </c>
       <c r="D143">
         <f t="shared" si="9"/>
-        <v>568000</v>
+        <v>39907</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -9931,7 +9932,7 @@
       </c>
       <c r="D144">
         <f t="shared" si="9"/>
-        <v>572000</v>
+        <v>40474</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -9948,7 +9949,7 @@
       </c>
       <c r="D145">
         <f t="shared" si="9"/>
-        <v>576000</v>
+        <v>41045</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -9965,7 +9966,7 @@
       </c>
       <c r="D146">
         <f t="shared" si="9"/>
-        <v>580000</v>
+        <v>41620</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -9982,7 +9983,7 @@
       </c>
       <c r="D147">
         <f t="shared" si="9"/>
-        <v>584000</v>
+        <v>42199</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -9999,7 +10000,7 @@
       </c>
       <c r="D148">
         <f t="shared" si="9"/>
-        <v>588000</v>
+        <v>42782</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -10016,7 +10017,7 @@
       </c>
       <c r="D149">
         <f t="shared" si="9"/>
-        <v>592000</v>
+        <v>43369</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -10033,7 +10034,7 @@
       </c>
       <c r="D150">
         <f t="shared" si="9"/>
-        <v>596000</v>
+        <v>43960</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -10050,7 +10051,7 @@
       </c>
       <c r="D151">
         <f t="shared" si="9"/>
-        <v>600000</v>
+        <v>44555</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -10067,7 +10068,7 @@
       </c>
       <c r="D152">
         <f t="shared" si="9"/>
-        <v>604000</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -10084,7 +10085,7 @@
       </c>
       <c r="D153">
         <f t="shared" si="9"/>
-        <v>608000</v>
+        <v>45757</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -10101,7 +10102,7 @@
       </c>
       <c r="D154">
         <f t="shared" si="9"/>
-        <v>612000</v>
+        <v>46364</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -10118,7 +10119,7 @@
       </c>
       <c r="D155">
         <f t="shared" si="9"/>
-        <v>616000</v>
+        <v>46975</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -10135,7 +10136,7 @@
       </c>
       <c r="D156">
         <f t="shared" si="9"/>
-        <v>620000</v>
+        <v>47590</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -10152,7 +10153,7 @@
       </c>
       <c r="D157">
         <f t="shared" si="9"/>
-        <v>624000</v>
+        <v>48209</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -10169,7 +10170,7 @@
       </c>
       <c r="D158">
         <f t="shared" si="9"/>
-        <v>628000</v>
+        <v>48832</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -10186,7 +10187,7 @@
       </c>
       <c r="D159">
         <f t="shared" si="9"/>
-        <v>632000</v>
+        <v>49459</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -10203,7 +10204,7 @@
       </c>
       <c r="D160">
         <f t="shared" si="9"/>
-        <v>636000</v>
+        <v>50090</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -10220,7 +10221,7 @@
       </c>
       <c r="D161">
         <f t="shared" si="9"/>
-        <v>640000</v>
+        <v>50725</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -10237,7 +10238,7 @@
       </c>
       <c r="D162">
         <f t="shared" si="9"/>
-        <v>644000</v>
+        <v>51364</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -10254,7 +10255,7 @@
       </c>
       <c r="D163">
         <f t="shared" si="9"/>
-        <v>648000</v>
+        <v>52007</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -10271,7 +10272,7 @@
       </c>
       <c r="D164">
         <f t="shared" si="9"/>
-        <v>652000</v>
+        <v>52654</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -10288,7 +10289,7 @@
       </c>
       <c r="D165">
         <f t="shared" si="9"/>
-        <v>656000</v>
+        <v>53305</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -10305,7 +10306,7 @@
       </c>
       <c r="D166">
         <f t="shared" si="9"/>
-        <v>660000</v>
+        <v>53960</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -10322,7 +10323,7 @@
       </c>
       <c r="D167">
         <f t="shared" si="9"/>
-        <v>664000</v>
+        <v>54619</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -10339,7 +10340,7 @@
       </c>
       <c r="D168">
         <f t="shared" si="9"/>
-        <v>668000</v>
+        <v>55282</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -10356,7 +10357,7 @@
       </c>
       <c r="D169">
         <f t="shared" si="9"/>
-        <v>672000</v>
+        <v>55949</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -10373,7 +10374,7 @@
       </c>
       <c r="D170">
         <f t="shared" si="9"/>
-        <v>676000</v>
+        <v>56620</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -10390,7 +10391,7 @@
       </c>
       <c r="D171">
         <f t="shared" si="9"/>
-        <v>680000</v>
+        <v>57295</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -10407,7 +10408,7 @@
       </c>
       <c r="D172">
         <f t="shared" si="9"/>
-        <v>684000</v>
+        <v>57974</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -10424,7 +10425,7 @@
       </c>
       <c r="D173">
         <f t="shared" si="9"/>
-        <v>688000</v>
+        <v>58657</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -10441,7 +10442,7 @@
       </c>
       <c r="D174">
         <f t="shared" si="9"/>
-        <v>692000</v>
+        <v>59344</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -10458,7 +10459,7 @@
       </c>
       <c r="D175">
         <f t="shared" si="9"/>
-        <v>696000</v>
+        <v>60035</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -10475,7 +10476,7 @@
       </c>
       <c r="D176">
         <f t="shared" si="9"/>
-        <v>700000</v>
+        <v>60730</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -10492,7 +10493,7 @@
       </c>
       <c r="D177">
         <f t="shared" si="9"/>
-        <v>704000</v>
+        <v>61429</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -10509,7 +10510,7 @@
       </c>
       <c r="D178">
         <f t="shared" si="9"/>
-        <v>708000</v>
+        <v>62132</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -10526,7 +10527,7 @@
       </c>
       <c r="D179">
         <f t="shared" si="9"/>
-        <v>712000</v>
+        <v>62839</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -10543,7 +10544,7 @@
       </c>
       <c r="D180">
         <f t="shared" si="9"/>
-        <v>716000</v>
+        <v>63550</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -10560,7 +10561,7 @@
       </c>
       <c r="D181">
         <f t="shared" si="9"/>
-        <v>720000</v>
+        <v>64265</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -10577,7 +10578,7 @@
       </c>
       <c r="D182">
         <f t="shared" si="9"/>
-        <v>724000</v>
+        <v>64984</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -10594,7 +10595,7 @@
       </c>
       <c r="D183">
         <f t="shared" si="9"/>
-        <v>728000</v>
+        <v>65707</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -10611,7 +10612,7 @@
       </c>
       <c r="D184">
         <f t="shared" si="9"/>
-        <v>732000</v>
+        <v>66434</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -10628,7 +10629,7 @@
       </c>
       <c r="D185">
         <f t="shared" si="9"/>
-        <v>736000</v>
+        <v>67165</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -10645,7 +10646,7 @@
       </c>
       <c r="D186">
         <f t="shared" si="9"/>
-        <v>740000</v>
+        <v>67900</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -10662,7 +10663,7 @@
       </c>
       <c r="D187">
         <f t="shared" si="9"/>
-        <v>744000</v>
+        <v>68639</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -10679,7 +10680,7 @@
       </c>
       <c r="D188">
         <f t="shared" si="9"/>
-        <v>748000</v>
+        <v>69382</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -10696,7 +10697,7 @@
       </c>
       <c r="D189">
         <f t="shared" si="9"/>
-        <v>752000</v>
+        <v>70129</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -10713,7 +10714,7 @@
       </c>
       <c r="D190">
         <f t="shared" si="9"/>
-        <v>756000</v>
+        <v>70880</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -10730,7 +10731,7 @@
       </c>
       <c r="D191">
         <f t="shared" si="9"/>
-        <v>760000</v>
+        <v>71635</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -10747,7 +10748,7 @@
       </c>
       <c r="D192">
         <f t="shared" si="9"/>
-        <v>764000</v>
+        <v>72394</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -10764,7 +10765,7 @@
       </c>
       <c r="D193">
         <f t="shared" si="9"/>
-        <v>768000</v>
+        <v>73157</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -10781,7 +10782,7 @@
       </c>
       <c r="D194">
         <f t="shared" si="9"/>
-        <v>772000</v>
+        <v>73924</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -10797,8 +10798,8 @@
         <v>74361</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="12">4000*A195</f>
-        <v>776000</v>
+        <f t="shared" ref="D195:D258" si="12">2*A195*A195 - 3*A195 + 5</f>
+        <v>74695</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -10815,7 +10816,7 @@
       </c>
       <c r="D196">
         <f t="shared" si="12"/>
-        <v>780000</v>
+        <v>75470</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -10832,7 +10833,7 @@
       </c>
       <c r="D197">
         <f t="shared" si="12"/>
-        <v>784000</v>
+        <v>76249</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -10849,7 +10850,7 @@
       </c>
       <c r="D198">
         <f t="shared" si="12"/>
-        <v>788000</v>
+        <v>77032</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -10866,7 +10867,7 @@
       </c>
       <c r="D199">
         <f t="shared" si="12"/>
-        <v>792000</v>
+        <v>77819</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -10883,7 +10884,7 @@
       </c>
       <c r="D200">
         <f t="shared" si="12"/>
-        <v>796000</v>
+        <v>78610</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -10900,7 +10901,7 @@
       </c>
       <c r="D201">
         <f t="shared" si="12"/>
-        <v>800000</v>
+        <v>79405</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -10917,7 +10918,7 @@
       </c>
       <c r="D202">
         <f t="shared" si="12"/>
-        <v>804000</v>
+        <v>80204</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -10934,7 +10935,7 @@
       </c>
       <c r="D203">
         <f t="shared" si="12"/>
-        <v>808000</v>
+        <v>81007</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -10951,7 +10952,7 @@
       </c>
       <c r="D204">
         <f t="shared" si="12"/>
-        <v>812000</v>
+        <v>81814</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -10968,7 +10969,7 @@
       </c>
       <c r="D205">
         <f t="shared" si="12"/>
-        <v>816000</v>
+        <v>82625</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -10985,7 +10986,7 @@
       </c>
       <c r="D206">
         <f t="shared" si="12"/>
-        <v>820000</v>
+        <v>83440</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -11002,7 +11003,7 @@
       </c>
       <c r="D207">
         <f t="shared" si="12"/>
-        <v>824000</v>
+        <v>84259</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -11019,7 +11020,7 @@
       </c>
       <c r="D208">
         <f t="shared" si="12"/>
-        <v>828000</v>
+        <v>85082</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -11036,7 +11037,7 @@
       </c>
       <c r="D209">
         <f t="shared" si="12"/>
-        <v>832000</v>
+        <v>85909</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -11053,7 +11054,7 @@
       </c>
       <c r="D210">
         <f t="shared" si="12"/>
-        <v>836000</v>
+        <v>86740</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -11070,7 +11071,7 @@
       </c>
       <c r="D211">
         <f t="shared" si="12"/>
-        <v>840000</v>
+        <v>87575</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -11087,7 +11088,7 @@
       </c>
       <c r="D212">
         <f t="shared" si="12"/>
-        <v>844000</v>
+        <v>88414</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -11104,7 +11105,7 @@
       </c>
       <c r="D213">
         <f t="shared" si="12"/>
-        <v>848000</v>
+        <v>89257</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -11121,7 +11122,7 @@
       </c>
       <c r="D214">
         <f t="shared" si="12"/>
-        <v>852000</v>
+        <v>90104</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -11138,7 +11139,7 @@
       </c>
       <c r="D215">
         <f t="shared" si="12"/>
-        <v>856000</v>
+        <v>90955</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -11155,7 +11156,7 @@
       </c>
       <c r="D216">
         <f t="shared" si="12"/>
-        <v>860000</v>
+        <v>91810</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -11172,7 +11173,7 @@
       </c>
       <c r="D217">
         <f t="shared" si="12"/>
-        <v>864000</v>
+        <v>92669</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -11189,7 +11190,7 @@
       </c>
       <c r="D218">
         <f t="shared" si="12"/>
-        <v>868000</v>
+        <v>93532</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -11206,7 +11207,7 @@
       </c>
       <c r="D219">
         <f t="shared" si="12"/>
-        <v>872000</v>
+        <v>94399</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -11223,7 +11224,7 @@
       </c>
       <c r="D220">
         <f t="shared" si="12"/>
-        <v>876000</v>
+        <v>95270</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -11240,7 +11241,7 @@
       </c>
       <c r="D221">
         <f t="shared" si="12"/>
-        <v>880000</v>
+        <v>96145</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -11257,7 +11258,7 @@
       </c>
       <c r="D222">
         <f t="shared" si="12"/>
-        <v>884000</v>
+        <v>97024</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -11274,7 +11275,7 @@
       </c>
       <c r="D223">
         <f t="shared" si="12"/>
-        <v>888000</v>
+        <v>97907</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -11291,7 +11292,7 @@
       </c>
       <c r="D224">
         <f t="shared" si="12"/>
-        <v>892000</v>
+        <v>98794</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -11308,7 +11309,7 @@
       </c>
       <c r="D225">
         <f t="shared" si="12"/>
-        <v>896000</v>
+        <v>99685</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -11325,7 +11326,7 @@
       </c>
       <c r="D226">
         <f t="shared" si="12"/>
-        <v>900000</v>
+        <v>100580</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -11342,7 +11343,7 @@
       </c>
       <c r="D227">
         <f t="shared" si="12"/>
-        <v>904000</v>
+        <v>101479</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -11359,7 +11360,7 @@
       </c>
       <c r="D228">
         <f t="shared" si="12"/>
-        <v>908000</v>
+        <v>102382</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -11376,7 +11377,7 @@
       </c>
       <c r="D229">
         <f t="shared" si="12"/>
-        <v>912000</v>
+        <v>103289</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -11393,7 +11394,7 @@
       </c>
       <c r="D230">
         <f t="shared" si="12"/>
-        <v>916000</v>
+        <v>104200</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -11410,7 +11411,7 @@
       </c>
       <c r="D231">
         <f t="shared" si="12"/>
-        <v>920000</v>
+        <v>105115</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -11427,7 +11428,7 @@
       </c>
       <c r="D232">
         <f t="shared" si="12"/>
-        <v>924000</v>
+        <v>106034</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -11444,7 +11445,7 @@
       </c>
       <c r="D233">
         <f t="shared" si="12"/>
-        <v>928000</v>
+        <v>106957</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -11461,7 +11462,7 @@
       </c>
       <c r="D234">
         <f t="shared" si="12"/>
-        <v>932000</v>
+        <v>107884</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -11478,7 +11479,7 @@
       </c>
       <c r="D235">
         <f t="shared" si="12"/>
-        <v>936000</v>
+        <v>108815</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -11495,7 +11496,7 @@
       </c>
       <c r="D236">
         <f t="shared" si="12"/>
-        <v>940000</v>
+        <v>109750</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -11512,7 +11513,7 @@
       </c>
       <c r="D237">
         <f t="shared" si="12"/>
-        <v>944000</v>
+        <v>110689</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -11529,7 +11530,7 @@
       </c>
       <c r="D238">
         <f t="shared" si="12"/>
-        <v>948000</v>
+        <v>111632</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -11546,7 +11547,7 @@
       </c>
       <c r="D239">
         <f t="shared" si="12"/>
-        <v>952000</v>
+        <v>112579</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -11563,7 +11564,7 @@
       </c>
       <c r="D240">
         <f t="shared" si="12"/>
-        <v>956000</v>
+        <v>113530</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -11580,7 +11581,7 @@
       </c>
       <c r="D241">
         <f t="shared" si="12"/>
-        <v>960000</v>
+        <v>114485</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -11597,7 +11598,7 @@
       </c>
       <c r="D242">
         <f t="shared" si="12"/>
-        <v>964000</v>
+        <v>115444</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -11614,7 +11615,7 @@
       </c>
       <c r="D243">
         <f t="shared" si="12"/>
-        <v>968000</v>
+        <v>116407</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -11631,7 +11632,7 @@
       </c>
       <c r="D244">
         <f t="shared" si="12"/>
-        <v>972000</v>
+        <v>117374</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -11648,7 +11649,7 @@
       </c>
       <c r="D245">
         <f t="shared" si="12"/>
-        <v>976000</v>
+        <v>118345</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -11665,7 +11666,7 @@
       </c>
       <c r="D246">
         <f t="shared" si="12"/>
-        <v>980000</v>
+        <v>119320</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -11682,7 +11683,7 @@
       </c>
       <c r="D247">
         <f t="shared" si="12"/>
-        <v>984000</v>
+        <v>120299</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -11699,7 +11700,7 @@
       </c>
       <c r="D248">
         <f t="shared" si="12"/>
-        <v>988000</v>
+        <v>121282</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -11716,7 +11717,7 @@
       </c>
       <c r="D249">
         <f t="shared" si="12"/>
-        <v>992000</v>
+        <v>122269</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -11733,7 +11734,7 @@
       </c>
       <c r="D250">
         <f t="shared" si="12"/>
-        <v>996000</v>
+        <v>123260</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -11750,7 +11751,7 @@
       </c>
       <c r="D251">
         <f t="shared" si="12"/>
-        <v>1000000</v>
+        <v>124255</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -11767,7 +11768,7 @@
       </c>
       <c r="D252">
         <f t="shared" si="12"/>
-        <v>1004000</v>
+        <v>125254</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -11784,7 +11785,7 @@
       </c>
       <c r="D253">
         <f t="shared" si="12"/>
-        <v>1008000</v>
+        <v>126257</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -11801,7 +11802,7 @@
       </c>
       <c r="D254">
         <f t="shared" si="12"/>
-        <v>1012000</v>
+        <v>127264</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -11818,7 +11819,7 @@
       </c>
       <c r="D255">
         <f t="shared" si="12"/>
-        <v>1016000</v>
+        <v>128275</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -11835,7 +11836,7 @@
       </c>
       <c r="D256">
         <f t="shared" si="12"/>
-        <v>1020000</v>
+        <v>129290</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -11852,7 +11853,7 @@
       </c>
       <c r="D257">
         <f t="shared" si="12"/>
-        <v>1024000</v>
+        <v>130309</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -11869,7 +11870,7 @@
       </c>
       <c r="D258">
         <f t="shared" si="12"/>
-        <v>1028000</v>
+        <v>131332</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -11885,8 +11886,8 @@
         <v>131897</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="15">4000*A259</f>
-        <v>1032000</v>
+        <f t="shared" ref="D259:D322" si="15">2*A259*A259 - 3*A259 + 5</f>
+        <v>132359</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -11903,7 +11904,7 @@
       </c>
       <c r="D260">
         <f t="shared" si="15"/>
-        <v>1036000</v>
+        <v>133390</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -11920,7 +11921,7 @@
       </c>
       <c r="D261">
         <f t="shared" si="15"/>
-        <v>1040000</v>
+        <v>134425</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -11937,7 +11938,7 @@
       </c>
       <c r="D262">
         <f t="shared" si="15"/>
-        <v>1044000</v>
+        <v>135464</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -11954,7 +11955,7 @@
       </c>
       <c r="D263">
         <f t="shared" si="15"/>
-        <v>1048000</v>
+        <v>136507</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -11971,7 +11972,7 @@
       </c>
       <c r="D264">
         <f t="shared" si="15"/>
-        <v>1052000</v>
+        <v>137554</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -11988,7 +11989,7 @@
       </c>
       <c r="D265">
         <f t="shared" si="15"/>
-        <v>1056000</v>
+        <v>138605</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -12005,7 +12006,7 @@
       </c>
       <c r="D266">
         <f t="shared" si="15"/>
-        <v>1060000</v>
+        <v>139660</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -12022,7 +12023,7 @@
       </c>
       <c r="D267">
         <f t="shared" si="15"/>
-        <v>1064000</v>
+        <v>140719</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -12039,7 +12040,7 @@
       </c>
       <c r="D268">
         <f t="shared" si="15"/>
-        <v>1068000</v>
+        <v>141782</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -12056,7 +12057,7 @@
       </c>
       <c r="D269">
         <f t="shared" si="15"/>
-        <v>1072000</v>
+        <v>142849</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -12073,7 +12074,7 @@
       </c>
       <c r="D270">
         <f t="shared" si="15"/>
-        <v>1076000</v>
+        <v>143920</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -12090,7 +12091,7 @@
       </c>
       <c r="D271">
         <f t="shared" si="15"/>
-        <v>1080000</v>
+        <v>144995</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -12107,7 +12108,7 @@
       </c>
       <c r="D272">
         <f t="shared" si="15"/>
-        <v>1084000</v>
+        <v>146074</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -12124,7 +12125,7 @@
       </c>
       <c r="D273">
         <f t="shared" si="15"/>
-        <v>1088000</v>
+        <v>147157</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -12141,7 +12142,7 @@
       </c>
       <c r="D274">
         <f t="shared" si="15"/>
-        <v>1092000</v>
+        <v>148244</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -12158,7 +12159,7 @@
       </c>
       <c r="D275">
         <f t="shared" si="15"/>
-        <v>1096000</v>
+        <v>149335</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -12175,7 +12176,7 @@
       </c>
       <c r="D276">
         <f t="shared" si="15"/>
-        <v>1100000</v>
+        <v>150430</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -12192,7 +12193,7 @@
       </c>
       <c r="D277">
         <f t="shared" si="15"/>
-        <v>1104000</v>
+        <v>151529</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -12209,7 +12210,7 @@
       </c>
       <c r="D278">
         <f t="shared" si="15"/>
-        <v>1108000</v>
+        <v>152632</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -12226,7 +12227,7 @@
       </c>
       <c r="D279">
         <f t="shared" si="15"/>
-        <v>1112000</v>
+        <v>153739</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -12243,7 +12244,7 @@
       </c>
       <c r="D280">
         <f t="shared" si="15"/>
-        <v>1116000</v>
+        <v>154850</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -12260,7 +12261,7 @@
       </c>
       <c r="D281">
         <f t="shared" si="15"/>
-        <v>1120000</v>
+        <v>155965</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -12277,7 +12278,7 @@
       </c>
       <c r="D282">
         <f t="shared" si="15"/>
-        <v>1124000</v>
+        <v>157084</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -12294,7 +12295,7 @@
       </c>
       <c r="D283">
         <f t="shared" si="15"/>
-        <v>1128000</v>
+        <v>158207</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -12311,7 +12312,7 @@
       </c>
       <c r="D284">
         <f t="shared" si="15"/>
-        <v>1132000</v>
+        <v>159334</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -12328,7 +12329,7 @@
       </c>
       <c r="D285">
         <f t="shared" si="15"/>
-        <v>1136000</v>
+        <v>160465</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -12345,7 +12346,7 @@
       </c>
       <c r="D286">
         <f t="shared" si="15"/>
-        <v>1140000</v>
+        <v>161600</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -12362,7 +12363,7 @@
       </c>
       <c r="D287">
         <f t="shared" si="15"/>
-        <v>1144000</v>
+        <v>162739</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -12379,7 +12380,7 @@
       </c>
       <c r="D288">
         <f t="shared" si="15"/>
-        <v>1148000</v>
+        <v>163882</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -12396,7 +12397,7 @@
       </c>
       <c r="D289">
         <f t="shared" si="15"/>
-        <v>1152000</v>
+        <v>165029</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -12413,7 +12414,7 @@
       </c>
       <c r="D290">
         <f t="shared" si="15"/>
-        <v>1156000</v>
+        <v>166180</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -12430,7 +12431,7 @@
       </c>
       <c r="D291">
         <f t="shared" si="15"/>
-        <v>1160000</v>
+        <v>167335</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -12447,7 +12448,7 @@
       </c>
       <c r="D292">
         <f t="shared" si="15"/>
-        <v>1164000</v>
+        <v>168494</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -12464,7 +12465,7 @@
       </c>
       <c r="D293">
         <f t="shared" si="15"/>
-        <v>1168000</v>
+        <v>169657</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -12481,7 +12482,7 @@
       </c>
       <c r="D294">
         <f t="shared" si="15"/>
-        <v>1172000</v>
+        <v>170824</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -12498,7 +12499,7 @@
       </c>
       <c r="D295">
         <f t="shared" si="15"/>
-        <v>1176000</v>
+        <v>171995</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -12515,7 +12516,7 @@
       </c>
       <c r="D296">
         <f t="shared" si="15"/>
-        <v>1180000</v>
+        <v>173170</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -12532,7 +12533,7 @@
       </c>
       <c r="D297">
         <f t="shared" si="15"/>
-        <v>1184000</v>
+        <v>174349</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -12549,7 +12550,7 @@
       </c>
       <c r="D298">
         <f t="shared" si="15"/>
-        <v>1188000</v>
+        <v>175532</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -12566,7 +12567,7 @@
       </c>
       <c r="D299">
         <f t="shared" si="15"/>
-        <v>1192000</v>
+        <v>176719</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -12583,7 +12584,7 @@
       </c>
       <c r="D300">
         <f t="shared" si="15"/>
-        <v>1196000</v>
+        <v>177910</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -12600,7 +12601,7 @@
       </c>
       <c r="D301">
         <f t="shared" si="15"/>
-        <v>1200000</v>
+        <v>179105</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -12617,7 +12618,7 @@
       </c>
       <c r="D302">
         <f t="shared" si="15"/>
-        <v>1204000</v>
+        <v>180304</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -12634,7 +12635,7 @@
       </c>
       <c r="D303">
         <f t="shared" si="15"/>
-        <v>1208000</v>
+        <v>181507</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -12651,7 +12652,7 @@
       </c>
       <c r="D304">
         <f t="shared" si="15"/>
-        <v>1212000</v>
+        <v>182714</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -12668,7 +12669,7 @@
       </c>
       <c r="D305">
         <f t="shared" si="15"/>
-        <v>1216000</v>
+        <v>183925</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -12685,7 +12686,7 @@
       </c>
       <c r="D306">
         <f t="shared" si="15"/>
-        <v>1220000</v>
+        <v>185140</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -12702,7 +12703,7 @@
       </c>
       <c r="D307">
         <f t="shared" si="15"/>
-        <v>1224000</v>
+        <v>186359</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -12719,7 +12720,7 @@
       </c>
       <c r="D308">
         <f t="shared" si="15"/>
-        <v>1228000</v>
+        <v>187582</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -12736,7 +12737,7 @@
       </c>
       <c r="D309">
         <f t="shared" si="15"/>
-        <v>1232000</v>
+        <v>188809</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -12753,7 +12754,7 @@
       </c>
       <c r="D310">
         <f t="shared" si="15"/>
-        <v>1236000</v>
+        <v>190040</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -12770,7 +12771,7 @@
       </c>
       <c r="D311">
         <f t="shared" si="15"/>
-        <v>1240000</v>
+        <v>191275</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -12787,7 +12788,7 @@
       </c>
       <c r="D312">
         <f t="shared" si="15"/>
-        <v>1244000</v>
+        <v>192514</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -12804,7 +12805,7 @@
       </c>
       <c r="D313">
         <f t="shared" si="15"/>
-        <v>1248000</v>
+        <v>193757</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -12821,7 +12822,7 @@
       </c>
       <c r="D314">
         <f t="shared" si="15"/>
-        <v>1252000</v>
+        <v>195004</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -12838,7 +12839,7 @@
       </c>
       <c r="D315">
         <f t="shared" si="15"/>
-        <v>1256000</v>
+        <v>196255</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -12855,7 +12856,7 @@
       </c>
       <c r="D316">
         <f t="shared" si="15"/>
-        <v>1260000</v>
+        <v>197510</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -12872,7 +12873,7 @@
       </c>
       <c r="D317">
         <f t="shared" si="15"/>
-        <v>1264000</v>
+        <v>198769</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -12889,7 +12890,7 @@
       </c>
       <c r="D318">
         <f t="shared" si="15"/>
-        <v>1268000</v>
+        <v>200032</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -12906,7 +12907,7 @@
       </c>
       <c r="D319">
         <f t="shared" si="15"/>
-        <v>1272000</v>
+        <v>201299</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -12923,7 +12924,7 @@
       </c>
       <c r="D320">
         <f t="shared" si="15"/>
-        <v>1276000</v>
+        <v>202570</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -12940,7 +12941,7 @@
       </c>
       <c r="D321">
         <f t="shared" si="15"/>
-        <v>1280000</v>
+        <v>203845</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -12957,7 +12958,7 @@
       </c>
       <c r="D322">
         <f t="shared" si="15"/>
-        <v>1284000</v>
+        <v>205124</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -12973,8 +12974,8 @@
         <v>205817</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="18">4000*A323</f>
-        <v>1288000</v>
+        <f t="shared" ref="D323:D386" si="18">2*A323*A323 - 3*A323 + 5</f>
+        <v>206407</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -12991,7 +12992,7 @@
       </c>
       <c r="D324">
         <f t="shared" si="18"/>
-        <v>1292000</v>
+        <v>207694</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -13008,7 +13009,7 @@
       </c>
       <c r="D325">
         <f t="shared" si="18"/>
-        <v>1296000</v>
+        <v>208985</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -13025,7 +13026,7 @@
       </c>
       <c r="D326">
         <f t="shared" si="18"/>
-        <v>1300000</v>
+        <v>210280</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -13042,7 +13043,7 @@
       </c>
       <c r="D327">
         <f t="shared" si="18"/>
-        <v>1304000</v>
+        <v>211579</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -13059,7 +13060,7 @@
       </c>
       <c r="D328">
         <f t="shared" si="18"/>
-        <v>1308000</v>
+        <v>212882</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -13076,7 +13077,7 @@
       </c>
       <c r="D329">
         <f t="shared" si="18"/>
-        <v>1312000</v>
+        <v>214189</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -13093,7 +13094,7 @@
       </c>
       <c r="D330">
         <f t="shared" si="18"/>
-        <v>1316000</v>
+        <v>215500</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -13110,7 +13111,7 @@
       </c>
       <c r="D331">
         <f t="shared" si="18"/>
-        <v>1320000</v>
+        <v>216815</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -13127,7 +13128,7 @@
       </c>
       <c r="D332">
         <f t="shared" si="18"/>
-        <v>1324000</v>
+        <v>218134</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -13144,7 +13145,7 @@
       </c>
       <c r="D333">
         <f t="shared" si="18"/>
-        <v>1328000</v>
+        <v>219457</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -13161,7 +13162,7 @@
       </c>
       <c r="D334">
         <f t="shared" si="18"/>
-        <v>1332000</v>
+        <v>220784</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -13178,7 +13179,7 @@
       </c>
       <c r="D335">
         <f t="shared" si="18"/>
-        <v>1336000</v>
+        <v>222115</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -13195,7 +13196,7 @@
       </c>
       <c r="D336">
         <f t="shared" si="18"/>
-        <v>1340000</v>
+        <v>223450</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -13212,7 +13213,7 @@
       </c>
       <c r="D337">
         <f t="shared" si="18"/>
-        <v>1344000</v>
+        <v>224789</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -13229,7 +13230,7 @@
       </c>
       <c r="D338">
         <f t="shared" si="18"/>
-        <v>1348000</v>
+        <v>226132</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -13246,7 +13247,7 @@
       </c>
       <c r="D339">
         <f t="shared" si="18"/>
-        <v>1352000</v>
+        <v>227479</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -13263,7 +13264,7 @@
       </c>
       <c r="D340">
         <f t="shared" si="18"/>
-        <v>1356000</v>
+        <v>228830</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -13280,7 +13281,7 @@
       </c>
       <c r="D341">
         <f t="shared" si="18"/>
-        <v>1360000</v>
+        <v>230185</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -13297,7 +13298,7 @@
       </c>
       <c r="D342">
         <f t="shared" si="18"/>
-        <v>1364000</v>
+        <v>231544</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -13314,7 +13315,7 @@
       </c>
       <c r="D343">
         <f t="shared" si="18"/>
-        <v>1368000</v>
+        <v>232907</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -13331,7 +13332,7 @@
       </c>
       <c r="D344">
         <f t="shared" si="18"/>
-        <v>1372000</v>
+        <v>234274</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -13348,7 +13349,7 @@
       </c>
       <c r="D345">
         <f t="shared" si="18"/>
-        <v>1376000</v>
+        <v>235645</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -13365,7 +13366,7 @@
       </c>
       <c r="D346">
         <f t="shared" si="18"/>
-        <v>1380000</v>
+        <v>237020</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -13382,7 +13383,7 @@
       </c>
       <c r="D347">
         <f t="shared" si="18"/>
-        <v>1384000</v>
+        <v>238399</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -13399,7 +13400,7 @@
       </c>
       <c r="D348">
         <f t="shared" si="18"/>
-        <v>1388000</v>
+        <v>239782</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -13416,7 +13417,7 @@
       </c>
       <c r="D349">
         <f t="shared" si="18"/>
-        <v>1392000</v>
+        <v>241169</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -13433,7 +13434,7 @@
       </c>
       <c r="D350">
         <f t="shared" si="18"/>
-        <v>1396000</v>
+        <v>242560</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -13450,7 +13451,7 @@
       </c>
       <c r="D351">
         <f t="shared" si="18"/>
-        <v>1400000</v>
+        <v>243955</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -13467,7 +13468,7 @@
       </c>
       <c r="D352">
         <f t="shared" si="18"/>
-        <v>1404000</v>
+        <v>245354</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -13484,7 +13485,7 @@
       </c>
       <c r="D353">
         <f t="shared" si="18"/>
-        <v>1408000</v>
+        <v>246757</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -13501,7 +13502,7 @@
       </c>
       <c r="D354">
         <f t="shared" si="18"/>
-        <v>1412000</v>
+        <v>248164</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -13518,7 +13519,7 @@
       </c>
       <c r="D355">
         <f t="shared" si="18"/>
-        <v>1416000</v>
+        <v>249575</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -13535,7 +13536,7 @@
       </c>
       <c r="D356">
         <f t="shared" si="18"/>
-        <v>1420000</v>
+        <v>250990</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -13552,7 +13553,7 @@
       </c>
       <c r="D357">
         <f t="shared" si="18"/>
-        <v>1424000</v>
+        <v>252409</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -13569,7 +13570,7 @@
       </c>
       <c r="D358">
         <f t="shared" si="18"/>
-        <v>1428000</v>
+        <v>253832</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -13586,7 +13587,7 @@
       </c>
       <c r="D359">
         <f t="shared" si="18"/>
-        <v>1432000</v>
+        <v>255259</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -13603,7 +13604,7 @@
       </c>
       <c r="D360">
         <f t="shared" si="18"/>
-        <v>1436000</v>
+        <v>256690</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -13620,7 +13621,7 @@
       </c>
       <c r="D361">
         <f t="shared" si="18"/>
-        <v>1440000</v>
+        <v>258125</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -13637,7 +13638,7 @@
       </c>
       <c r="D362">
         <f t="shared" si="18"/>
-        <v>1444000</v>
+        <v>259564</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -13654,7 +13655,7 @@
       </c>
       <c r="D363">
         <f t="shared" si="18"/>
-        <v>1448000</v>
+        <v>261007</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -13671,7 +13672,7 @@
       </c>
       <c r="D364">
         <f t="shared" si="18"/>
-        <v>1452000</v>
+        <v>262454</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -13688,7 +13689,7 @@
       </c>
       <c r="D365">
         <f t="shared" si="18"/>
-        <v>1456000</v>
+        <v>263905</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -13705,7 +13706,7 @@
       </c>
       <c r="D366">
         <f t="shared" si="18"/>
-        <v>1460000</v>
+        <v>265360</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -13722,7 +13723,7 @@
       </c>
       <c r="D367">
         <f t="shared" si="18"/>
-        <v>1464000</v>
+        <v>266819</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -13739,7 +13740,7 @@
       </c>
       <c r="D368">
         <f t="shared" si="18"/>
-        <v>1468000</v>
+        <v>268282</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -13756,7 +13757,7 @@
       </c>
       <c r="D369">
         <f t="shared" si="18"/>
-        <v>1472000</v>
+        <v>269749</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -13773,7 +13774,7 @@
       </c>
       <c r="D370">
         <f t="shared" si="18"/>
-        <v>1476000</v>
+        <v>271220</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -13790,7 +13791,7 @@
       </c>
       <c r="D371">
         <f t="shared" si="18"/>
-        <v>1480000</v>
+        <v>272695</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -13807,7 +13808,7 @@
       </c>
       <c r="D372">
         <f t="shared" si="18"/>
-        <v>1484000</v>
+        <v>274174</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -13824,7 +13825,7 @@
       </c>
       <c r="D373">
         <f t="shared" si="18"/>
-        <v>1488000</v>
+        <v>275657</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -13841,7 +13842,7 @@
       </c>
       <c r="D374">
         <f t="shared" si="18"/>
-        <v>1492000</v>
+        <v>277144</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -13858,7 +13859,7 @@
       </c>
       <c r="D375">
         <f t="shared" si="18"/>
-        <v>1496000</v>
+        <v>278635</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -13875,7 +13876,7 @@
       </c>
       <c r="D376">
         <f t="shared" si="18"/>
-        <v>1500000</v>
+        <v>280130</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -13892,7 +13893,7 @@
       </c>
       <c r="D377">
         <f t="shared" si="18"/>
-        <v>1504000</v>
+        <v>281629</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -13909,7 +13910,7 @@
       </c>
       <c r="D378">
         <f t="shared" si="18"/>
-        <v>1508000</v>
+        <v>283132</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -13926,7 +13927,7 @@
       </c>
       <c r="D379">
         <f t="shared" si="18"/>
-        <v>1512000</v>
+        <v>284639</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -13943,7 +13944,7 @@
       </c>
       <c r="D380">
         <f t="shared" si="18"/>
-        <v>1516000</v>
+        <v>286150</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -13960,7 +13961,7 @@
       </c>
       <c r="D381">
         <f t="shared" si="18"/>
-        <v>1520000</v>
+        <v>287665</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -13977,7 +13978,7 @@
       </c>
       <c r="D382">
         <f t="shared" si="18"/>
-        <v>1524000</v>
+        <v>289184</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -13994,7 +13995,7 @@
       </c>
       <c r="D383">
         <f t="shared" si="18"/>
-        <v>1528000</v>
+        <v>290707</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -14011,7 +14012,7 @@
       </c>
       <c r="D384">
         <f t="shared" si="18"/>
-        <v>1532000</v>
+        <v>292234</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -14028,7 +14029,7 @@
       </c>
       <c r="D385">
         <f t="shared" si="18"/>
-        <v>1536000</v>
+        <v>293765</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -14045,7 +14046,7 @@
       </c>
       <c r="D386">
         <f t="shared" si="18"/>
-        <v>1540000</v>
+        <v>295300</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -14061,8 +14062,8 @@
         <v>296121</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="21">4000*A387</f>
-        <v>1544000</v>
+        <f t="shared" ref="D387:D450" si="21">2*A387*A387 - 3*A387 + 5</f>
+        <v>296839</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -14079,7 +14080,7 @@
       </c>
       <c r="D388">
         <f t="shared" si="21"/>
-        <v>1548000</v>
+        <v>298382</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -14096,7 +14097,7 @@
       </c>
       <c r="D389">
         <f t="shared" si="21"/>
-        <v>1552000</v>
+        <v>299929</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -14113,7 +14114,7 @@
       </c>
       <c r="D390">
         <f t="shared" si="21"/>
-        <v>1556000</v>
+        <v>301480</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -14130,7 +14131,7 @@
       </c>
       <c r="D391">
         <f t="shared" si="21"/>
-        <v>1560000</v>
+        <v>303035</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -14147,7 +14148,7 @@
       </c>
       <c r="D392">
         <f t="shared" si="21"/>
-        <v>1564000</v>
+        <v>304594</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -14164,7 +14165,7 @@
       </c>
       <c r="D393">
         <f t="shared" si="21"/>
-        <v>1568000</v>
+        <v>306157</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -14181,7 +14182,7 @@
       </c>
       <c r="D394">
         <f t="shared" si="21"/>
-        <v>1572000</v>
+        <v>307724</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -14198,7 +14199,7 @@
       </c>
       <c r="D395">
         <f t="shared" si="21"/>
-        <v>1576000</v>
+        <v>309295</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -14215,7 +14216,7 @@
       </c>
       <c r="D396">
         <f t="shared" si="21"/>
-        <v>1580000</v>
+        <v>310870</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -14232,7 +14233,7 @@
       </c>
       <c r="D397">
         <f t="shared" si="21"/>
-        <v>1584000</v>
+        <v>312449</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -14249,7 +14250,7 @@
       </c>
       <c r="D398">
         <f t="shared" si="21"/>
-        <v>1588000</v>
+        <v>314032</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -14266,7 +14267,7 @@
       </c>
       <c r="D399">
         <f t="shared" si="21"/>
-        <v>1592000</v>
+        <v>315619</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -14283,7 +14284,7 @@
       </c>
       <c r="D400">
         <f t="shared" si="21"/>
-        <v>1596000</v>
+        <v>317210</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -14300,7 +14301,7 @@
       </c>
       <c r="D401">
         <f t="shared" si="21"/>
-        <v>1600000</v>
+        <v>318805</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -14317,7 +14318,7 @@
       </c>
       <c r="D402">
         <f t="shared" si="21"/>
-        <v>1604000</v>
+        <v>320404</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -14334,7 +14335,7 @@
       </c>
       <c r="D403">
         <f t="shared" si="21"/>
-        <v>1608000</v>
+        <v>322007</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -14351,7 +14352,7 @@
       </c>
       <c r="D404">
         <f t="shared" si="21"/>
-        <v>1612000</v>
+        <v>323614</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -14368,7 +14369,7 @@
       </c>
       <c r="D405">
         <f t="shared" si="21"/>
-        <v>1616000</v>
+        <v>325225</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -14385,7 +14386,7 @@
       </c>
       <c r="D406">
         <f t="shared" si="21"/>
-        <v>1620000</v>
+        <v>326840</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -14402,7 +14403,7 @@
       </c>
       <c r="D407">
         <f t="shared" si="21"/>
-        <v>1624000</v>
+        <v>328459</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -14419,7 +14420,7 @@
       </c>
       <c r="D408">
         <f t="shared" si="21"/>
-        <v>1628000</v>
+        <v>330082</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -14436,7 +14437,7 @@
       </c>
       <c r="D409">
         <f t="shared" si="21"/>
-        <v>1632000</v>
+        <v>331709</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -14453,7 +14454,7 @@
       </c>
       <c r="D410">
         <f t="shared" si="21"/>
-        <v>1636000</v>
+        <v>333340</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -14470,7 +14471,7 @@
       </c>
       <c r="D411">
         <f t="shared" si="21"/>
-        <v>1640000</v>
+        <v>334975</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -14487,7 +14488,7 @@
       </c>
       <c r="D412">
         <f t="shared" si="21"/>
-        <v>1644000</v>
+        <v>336614</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -14504,7 +14505,7 @@
       </c>
       <c r="D413">
         <f t="shared" si="21"/>
-        <v>1648000</v>
+        <v>338257</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -14521,7 +14522,7 @@
       </c>
       <c r="D414">
         <f t="shared" si="21"/>
-        <v>1652000</v>
+        <v>339904</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -14538,7 +14539,7 @@
       </c>
       <c r="D415">
         <f t="shared" si="21"/>
-        <v>1656000</v>
+        <v>341555</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -14555,7 +14556,7 @@
       </c>
       <c r="D416">
         <f t="shared" si="21"/>
-        <v>1660000</v>
+        <v>343210</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -14572,7 +14573,7 @@
       </c>
       <c r="D417">
         <f t="shared" si="21"/>
-        <v>1664000</v>
+        <v>344869</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -14589,7 +14590,7 @@
       </c>
       <c r="D418">
         <f t="shared" si="21"/>
-        <v>1668000</v>
+        <v>346532</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -14606,7 +14607,7 @@
       </c>
       <c r="D419">
         <f t="shared" si="21"/>
-        <v>1672000</v>
+        <v>348199</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
@@ -14623,7 +14624,7 @@
       </c>
       <c r="D420">
         <f t="shared" si="21"/>
-        <v>1676000</v>
+        <v>349870</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -14640,7 +14641,7 @@
       </c>
       <c r="D421">
         <f t="shared" si="21"/>
-        <v>1680000</v>
+        <v>351545</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -14657,7 +14658,7 @@
       </c>
       <c r="D422">
         <f t="shared" si="21"/>
-        <v>1684000</v>
+        <v>353224</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -14674,7 +14675,7 @@
       </c>
       <c r="D423">
         <f t="shared" si="21"/>
-        <v>1688000</v>
+        <v>354907</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -14691,7 +14692,7 @@
       </c>
       <c r="D424">
         <f t="shared" si="21"/>
-        <v>1692000</v>
+        <v>356594</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -14708,7 +14709,7 @@
       </c>
       <c r="D425">
         <f t="shared" si="21"/>
-        <v>1696000</v>
+        <v>358285</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -14725,7 +14726,7 @@
       </c>
       <c r="D426">
         <f t="shared" si="21"/>
-        <v>1700000</v>
+        <v>359980</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -14742,7 +14743,7 @@
       </c>
       <c r="D427">
         <f t="shared" si="21"/>
-        <v>1704000</v>
+        <v>361679</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -14759,7 +14760,7 @@
       </c>
       <c r="D428">
         <f t="shared" si="21"/>
-        <v>1708000</v>
+        <v>363382</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -14776,7 +14777,7 @@
       </c>
       <c r="D429">
         <f t="shared" si="21"/>
-        <v>1712000</v>
+        <v>365089</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -14793,7 +14794,7 @@
       </c>
       <c r="D430">
         <f t="shared" si="21"/>
-        <v>1716000</v>
+        <v>366800</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -14810,7 +14811,7 @@
       </c>
       <c r="D431">
         <f t="shared" si="21"/>
-        <v>1720000</v>
+        <v>368515</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -14827,7 +14828,7 @@
       </c>
       <c r="D432">
         <f t="shared" si="21"/>
-        <v>1724000</v>
+        <v>370234</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -14844,7 +14845,7 @@
       </c>
       <c r="D433">
         <f t="shared" si="21"/>
-        <v>1728000</v>
+        <v>371957</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -14861,7 +14862,7 @@
       </c>
       <c r="D434">
         <f t="shared" si="21"/>
-        <v>1732000</v>
+        <v>373684</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -14878,7 +14879,7 @@
       </c>
       <c r="D435">
         <f t="shared" si="21"/>
-        <v>1736000</v>
+        <v>375415</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -14895,7 +14896,7 @@
       </c>
       <c r="D436">
         <f t="shared" si="21"/>
-        <v>1740000</v>
+        <v>377150</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -14912,7 +14913,7 @@
       </c>
       <c r="D437">
         <f t="shared" si="21"/>
-        <v>1744000</v>
+        <v>378889</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -14929,7 +14930,7 @@
       </c>
       <c r="D438">
         <f t="shared" si="21"/>
-        <v>1748000</v>
+        <v>380632</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -14946,7 +14947,7 @@
       </c>
       <c r="D439">
         <f t="shared" si="21"/>
-        <v>1752000</v>
+        <v>382379</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -14963,7 +14964,7 @@
       </c>
       <c r="D440">
         <f t="shared" si="21"/>
-        <v>1756000</v>
+        <v>384130</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -14980,7 +14981,7 @@
       </c>
       <c r="D441">
         <f t="shared" si="21"/>
-        <v>1760000</v>
+        <v>385885</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -14997,7 +14998,7 @@
       </c>
       <c r="D442">
         <f t="shared" si="21"/>
-        <v>1764000</v>
+        <v>387644</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -15014,7 +15015,7 @@
       </c>
       <c r="D443">
         <f t="shared" si="21"/>
-        <v>1768000</v>
+        <v>389407</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -15031,7 +15032,7 @@
       </c>
       <c r="D444">
         <f t="shared" si="21"/>
-        <v>1772000</v>
+        <v>391174</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -15048,7 +15049,7 @@
       </c>
       <c r="D445">
         <f t="shared" si="21"/>
-        <v>1776000</v>
+        <v>392945</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -15065,7 +15066,7 @@
       </c>
       <c r="D446">
         <f t="shared" si="21"/>
-        <v>1780000</v>
+        <v>394720</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -15082,7 +15083,7 @@
       </c>
       <c r="D447">
         <f t="shared" si="21"/>
-        <v>1784000</v>
+        <v>396499</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -15099,7 +15100,7 @@
       </c>
       <c r="D448">
         <f t="shared" si="21"/>
-        <v>1788000</v>
+        <v>398282</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
@@ -15116,7 +15117,7 @@
       </c>
       <c r="D449">
         <f t="shared" si="21"/>
-        <v>1792000</v>
+        <v>400069</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
@@ -15133,7 +15134,7 @@
       </c>
       <c r="D450">
         <f t="shared" si="21"/>
-        <v>1796000</v>
+        <v>401860</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
@@ -15149,8 +15150,8 @@
         <v>402809</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D513" si="24">4000*A451</f>
-        <v>1800000</v>
+        <f t="shared" ref="D451:D513" si="24">2*A451*A451 - 3*A451 + 5</f>
+        <v>403655</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -15167,7 +15168,7 @@
       </c>
       <c r="D452">
         <f t="shared" si="24"/>
-        <v>1804000</v>
+        <v>405454</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -15184,7 +15185,7 @@
       </c>
       <c r="D453">
         <f t="shared" si="24"/>
-        <v>1808000</v>
+        <v>407257</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -15201,7 +15202,7 @@
       </c>
       <c r="D454">
         <f t="shared" si="24"/>
-        <v>1812000</v>
+        <v>409064</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -15218,7 +15219,7 @@
       </c>
       <c r="D455">
         <f t="shared" si="24"/>
-        <v>1816000</v>
+        <v>410875</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
@@ -15235,7 +15236,7 @@
       </c>
       <c r="D456">
         <f t="shared" si="24"/>
-        <v>1820000</v>
+        <v>412690</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -15252,7 +15253,7 @@
       </c>
       <c r="D457">
         <f t="shared" si="24"/>
-        <v>1824000</v>
+        <v>414509</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -15269,7 +15270,7 @@
       </c>
       <c r="D458">
         <f t="shared" si="24"/>
-        <v>1828000</v>
+        <v>416332</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -15286,7 +15287,7 @@
       </c>
       <c r="D459">
         <f t="shared" si="24"/>
-        <v>1832000</v>
+        <v>418159</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -15303,7 +15304,7 @@
       </c>
       <c r="D460">
         <f t="shared" si="24"/>
-        <v>1836000</v>
+        <v>419990</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -15320,7 +15321,7 @@
       </c>
       <c r="D461">
         <f t="shared" si="24"/>
-        <v>1840000</v>
+        <v>421825</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
@@ -15337,7 +15338,7 @@
       </c>
       <c r="D462">
         <f t="shared" si="24"/>
-        <v>1844000</v>
+        <v>423664</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
@@ -15354,7 +15355,7 @@
       </c>
       <c r="D463">
         <f t="shared" si="24"/>
-        <v>1848000</v>
+        <v>425507</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
@@ -15371,7 +15372,7 @@
       </c>
       <c r="D464">
         <f t="shared" si="24"/>
-        <v>1852000</v>
+        <v>427354</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
@@ -15388,7 +15389,7 @@
       </c>
       <c r="D465">
         <f t="shared" si="24"/>
-        <v>1856000</v>
+        <v>429205</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
@@ -15405,7 +15406,7 @@
       </c>
       <c r="D466">
         <f t="shared" si="24"/>
-        <v>1860000</v>
+        <v>431060</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
@@ -15422,7 +15423,7 @@
       </c>
       <c r="D467">
         <f t="shared" si="24"/>
-        <v>1864000</v>
+        <v>432919</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
@@ -15439,7 +15440,7 @@
       </c>
       <c r="D468">
         <f t="shared" si="24"/>
-        <v>1868000</v>
+        <v>434782</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -15456,7 +15457,7 @@
       </c>
       <c r="D469">
         <f t="shared" si="24"/>
-        <v>1872000</v>
+        <v>436649</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
@@ -15473,7 +15474,7 @@
       </c>
       <c r="D470">
         <f t="shared" si="24"/>
-        <v>1876000</v>
+        <v>438520</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
@@ -15490,7 +15491,7 @@
       </c>
       <c r="D471">
         <f t="shared" si="24"/>
-        <v>1880000</v>
+        <v>440395</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -15507,7 +15508,7 @@
       </c>
       <c r="D472">
         <f t="shared" si="24"/>
-        <v>1884000</v>
+        <v>442274</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -15524,7 +15525,7 @@
       </c>
       <c r="D473">
         <f t="shared" si="24"/>
-        <v>1888000</v>
+        <v>444157</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
@@ -15541,7 +15542,7 @@
       </c>
       <c r="D474">
         <f t="shared" si="24"/>
-        <v>1892000</v>
+        <v>446044</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
@@ -15558,7 +15559,7 @@
       </c>
       <c r="D475">
         <f t="shared" si="24"/>
-        <v>1896000</v>
+        <v>447935</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -15575,7 +15576,7 @@
       </c>
       <c r="D476">
         <f t="shared" si="24"/>
-        <v>1900000</v>
+        <v>449830</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
@@ -15592,7 +15593,7 @@
       </c>
       <c r="D477">
         <f t="shared" si="24"/>
-        <v>1904000</v>
+        <v>451729</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
@@ -15609,7 +15610,7 @@
       </c>
       <c r="D478">
         <f t="shared" si="24"/>
-        <v>1908000</v>
+        <v>453632</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
@@ -15626,7 +15627,7 @@
       </c>
       <c r="D479">
         <f t="shared" si="24"/>
-        <v>1912000</v>
+        <v>455539</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
@@ -15643,7 +15644,7 @@
       </c>
       <c r="D480">
         <f t="shared" si="24"/>
-        <v>1916000</v>
+        <v>457450</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
@@ -15660,7 +15661,7 @@
       </c>
       <c r="D481">
         <f t="shared" si="24"/>
-        <v>1920000</v>
+        <v>459365</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
@@ -15677,7 +15678,7 @@
       </c>
       <c r="D482">
         <f t="shared" si="24"/>
-        <v>1924000</v>
+        <v>461284</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
@@ -15694,7 +15695,7 @@
       </c>
       <c r="D483">
         <f t="shared" si="24"/>
-        <v>1928000</v>
+        <v>463207</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
@@ -15711,7 +15712,7 @@
       </c>
       <c r="D484">
         <f t="shared" si="24"/>
-        <v>1932000</v>
+        <v>465134</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
@@ -15728,7 +15729,7 @@
       </c>
       <c r="D485">
         <f t="shared" si="24"/>
-        <v>1936000</v>
+        <v>467065</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -15745,7 +15746,7 @@
       </c>
       <c r="D486">
         <f t="shared" si="24"/>
-        <v>1940000</v>
+        <v>469000</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
@@ -15762,7 +15763,7 @@
       </c>
       <c r="D487">
         <f t="shared" si="24"/>
-        <v>1944000</v>
+        <v>470939</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
@@ -15779,7 +15780,7 @@
       </c>
       <c r="D488">
         <f t="shared" si="24"/>
-        <v>1948000</v>
+        <v>472882</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
@@ -15796,7 +15797,7 @@
       </c>
       <c r="D489">
         <f t="shared" si="24"/>
-        <v>1952000</v>
+        <v>474829</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
@@ -15813,7 +15814,7 @@
       </c>
       <c r="D490">
         <f t="shared" si="24"/>
-        <v>1956000</v>
+        <v>476780</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
@@ -15830,7 +15831,7 @@
       </c>
       <c r="D491">
         <f t="shared" si="24"/>
-        <v>1960000</v>
+        <v>478735</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
@@ -15847,7 +15848,7 @@
       </c>
       <c r="D492">
         <f t="shared" si="24"/>
-        <v>1964000</v>
+        <v>480694</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
@@ -15864,7 +15865,7 @@
       </c>
       <c r="D493">
         <f t="shared" si="24"/>
-        <v>1968000</v>
+        <v>482657</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -15881,7 +15882,7 @@
       </c>
       <c r="D494">
         <f t="shared" si="24"/>
-        <v>1972000</v>
+        <v>484624</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -15898,7 +15899,7 @@
       </c>
       <c r="D495">
         <f t="shared" si="24"/>
-        <v>1976000</v>
+        <v>486595</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
@@ -15915,7 +15916,7 @@
       </c>
       <c r="D496">
         <f t="shared" si="24"/>
-        <v>1980000</v>
+        <v>488570</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
@@ -15932,7 +15933,7 @@
       </c>
       <c r="D497">
         <f t="shared" si="24"/>
-        <v>1984000</v>
+        <v>490549</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
@@ -15949,7 +15950,7 @@
       </c>
       <c r="D498">
         <f t="shared" si="24"/>
-        <v>1988000</v>
+        <v>492532</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
@@ -15966,7 +15967,7 @@
       </c>
       <c r="D499">
         <f t="shared" si="24"/>
-        <v>1992000</v>
+        <v>494519</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
@@ -15983,7 +15984,7 @@
       </c>
       <c r="D500">
         <f t="shared" si="24"/>
-        <v>1996000</v>
+        <v>496510</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -16000,7 +16001,7 @@
       </c>
       <c r="D501">
         <f t="shared" si="24"/>
-        <v>2000000</v>
+        <v>498505</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
@@ -16017,7 +16018,7 @@
       </c>
       <c r="D502">
         <f t="shared" si="24"/>
-        <v>2004000</v>
+        <v>500504</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
@@ -16034,7 +16035,7 @@
       </c>
       <c r="D503">
         <f t="shared" si="24"/>
-        <v>2008000</v>
+        <v>502507</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
@@ -16051,7 +16052,7 @@
       </c>
       <c r="D504">
         <f t="shared" si="24"/>
-        <v>2012000</v>
+        <v>504514</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -16068,7 +16069,7 @@
       </c>
       <c r="D505">
         <f t="shared" si="24"/>
-        <v>2016000</v>
+        <v>506525</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
@@ -16085,7 +16086,7 @@
       </c>
       <c r="D506">
         <f t="shared" si="24"/>
-        <v>2020000</v>
+        <v>508540</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -16102,7 +16103,7 @@
       </c>
       <c r="D507">
         <f t="shared" si="24"/>
-        <v>2024000</v>
+        <v>510559</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -16119,7 +16120,7 @@
       </c>
       <c r="D508">
         <f t="shared" si="24"/>
-        <v>2028000</v>
+        <v>512582</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -16136,7 +16137,7 @@
       </c>
       <c r="D509">
         <f t="shared" si="24"/>
-        <v>2032000</v>
+        <v>514609</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
@@ -16153,7 +16154,7 @@
       </c>
       <c r="D510">
         <f t="shared" si="24"/>
-        <v>2036000</v>
+        <v>516640</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
@@ -16170,7 +16171,7 @@
       </c>
       <c r="D511">
         <f t="shared" si="24"/>
-        <v>2040000</v>
+        <v>518675</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
@@ -16187,7 +16188,7 @@
       </c>
       <c r="D512">
         <f t="shared" si="24"/>
-        <v>2044000</v>
+        <v>520714</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
@@ -16204,7 +16205,7 @@
       </c>
       <c r="D513">
         <f t="shared" si="24"/>
-        <v>2048000</v>
+        <v>522757</v>
       </c>
     </row>
   </sheetData>
